--- a/train_forms.xlsx
+++ b/train_forms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:E488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,16 @@
           <t>label</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +469,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,.pdf" name="cv" style="display: none;" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>personal informationcv or resumebrowse cv to autocomplete your application. you can still fill your profile manually.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +494,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" class="sc-bsgiji jskkmm" data-testid="textinput" id="email" name="email" required="" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +515,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;input class="sc-kilemz pddck" data-testid="firstname" id="firstname" name="firstname" required="" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +540,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;input class="sc-kilemz pddck" data-testid="lastname" id="lastname" name="lastname" required="" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -519,6 +565,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".doc, .docx, .pdf, .rtf, .txt" autocomplete="off" class="fileuploader___styledinput-sc-e2002db3-0 djcsgj" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>documents:.doc, .docx, .pdf, .rtf, .txt</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +590,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;button class="sc-jotjna fnrczm" type="submit"&gt;apply now&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cover letteroptionalterms &amp; conditionsprivacy policyapply now</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -549,6 +615,16 @@
           <t>fake</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;input class="fake-cv-button__input js-cv-upload-hidden-input" id="idc" name="cvborder:cvborder_body:cv:upload:onerowpanel:cvparser:form:cvfileinput" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>hr profile*</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -564,6 +640,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;input class="input-block-level" data-slnm="applicationform-input_firstnameborder" id="id3" name="firstnameborder:firstnameborder_body:firstname" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>pdf / docxingsoftgarden*please selectplease select*</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -579,6 +665,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;input class="input-block-level" data-slnm="applicationform-input_lastnameborder" id="id4" name="lastnameborder:lastnameborder_body:lastname" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -594,6 +690,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;input class="input-block-level personal-email" data-slnm="applicationform-input_emailborder" id="id6" name="emailborder:emailborder_body:email" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -609,6 +715,12 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;input class="input-block-level" data-slnm="applicationform-input_phoneborder" id="id9" name="phoneborder:phoneborder_body:phone" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -624,6 +736,16 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;input class="attachments" id="id10" multiple="" name="attachments:uploadform:upload" type="file" upload="file" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>*Add or browse additional attachments (e.g. certificates or diplomas) files here (max. file size 10 mb)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -639,6 +761,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;input class="input-block-level" id="id13" name="questions:questions:1:question:border:border_body:answer" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>questions**</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -654,6 +786,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;input data-slnm="applicationform-checkbox_createnetworkaccountaccepted" id="id14" name="createnetworkaccountborder:labelcontainer:createnetworkaccountborder_body:sgnetworkpolicyaccepted" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>create an account with softgarden to track the status of your applications in real time and apply in the future with one click.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -669,6 +811,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://network.softgarden.io/#/privacy-policy/de/" target="_blank"&gt;softgarden privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>softgarden privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -684,6 +836,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;input data-slnm="applicationform-input_acceptprivacypolicy" id="id15" name="acceptprivacypolicyborder:labelcontainer:acceptprivacypolicyborder_body:acceptprivacypolicy" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -699,6 +857,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;a class="sg_data_privacy_link" href="../de/data-security" target="_blank"&gt;the data protection notice&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>the data protection notice</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -714,6 +882,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-primary btn-large btn-submit" data-slnm="applicationform-input_buttonsubmit" id="id17" type="button"&gt;submit application&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>** mandatory field submit application</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -729,6 +907,12 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="none" aria-expanded="false" aria-haspopup="listbox" autocomplete="off" class="sc-65a7a46e-2 iysjqt" placeholder='city, state, zip code or "home office"' role="combobox" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -744,6 +928,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;input class="apply-application-process-renderer-zxan8r" data-genesis-element="form_input" data-testid="rlac-email-input" id="stepstone-form-element-31" placeholder="enter email address" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-mail-address</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -759,6 +953,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="first_name" placeholder="first" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>name *</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -774,6 +978,12 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="last_name" placeholder="last" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -789,6 +999,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="email" placeholder="yourmail@domain.com" required="" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>email *</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -804,6 +1024,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="phone" placeholder="+49 176 123 4455" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>phone *</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -819,6 +1049,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="available_from" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>available from *</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -834,6 +1074,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="salary_expectations" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>expected salary *</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -849,6 +1099,16 @@
           <t>xing</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1783523" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>xing</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -864,6 +1124,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1783522" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -879,6 +1149,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-check-input" id="privacy-policy-acceptance" name="privacy-policy-acceptance" required="" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>documentsand if you want tocv *click to select multiple files or use drag-and-dropotherclick to select multiple files or use drag-and-dropcover letterclick to select multiple files or use drag-and-drop</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -894,6 +1174,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;a class="privacy-policy-link" data-locale="en" href="javascript:void();"&gt;data privacy statement&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>data privacy statement</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -911,6 +1201,18 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;button class="career-btn-shape career-btn-primary mt-3 career-submit-application-btn" disabled="" type="submit"&gt;
+send application
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>*send application</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -928,6 +1230,18 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>&lt;button class="career-btn-shape career-btn-secondary mt-3 cancel" type="button"&gt;
+cancel
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -943,6 +1257,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/msword, application/vnd.openxmlformats-officedocument.wordprocessingml.document, application/pdf, application/vnd.oasis.opendocument.text, application/rtf, text/plain, image/png, image/jpeg" aria-describedby="input-candidate.cv-5-error input-candidate.cv-6" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.cv-7" autocomplete="off" data-cy="fileinputfield" id="input-candidate.cv-5" name="candidate.cv" required="" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>resume*upload resume</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -958,6 +1282,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.name-8-error" aria-invalid="false" autocomplete="name" class="sc-15kbb6z-0 lenswl" id="input-candidate.name-8" maxlength="255" name="candidate.name" placeholder="First and last name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Upload fileAccepted files: PDF, DOC, DOCX, JPEG and PNG up to 50 MB.My detailsPlease enter your contact detailsFirst and last name*</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -973,6 +1307,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.email-9-error" aria-invalid="false" autocomplete="email" class="sc-15kbb6z-0 lenswl" id="input-candidate.email-9" maxlength="255" name="candidate.email" placeholder="your e-mail address" required="" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>e-mail address*</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -988,6 +1332,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.phone-10-error" aria-invalid="false" autocomplete="tel" class="sc-15kbb6z-0 sc-1hkfaog-0 jgoego phoneinputinput" id="input-candidate.phone-10" name="candidate.phone" placeholder="phone number" required="" type="tel" value="+49"/&gt;</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>phone number*</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1003,6 +1357,16 @@
           <t>picture</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>&lt;input accept="image/png, image/jpeg" aria-describedby="input-candidate.photo-11-error input-candidate.photo-12" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.photo-13" autocomplete="off" data-cy="candidate.photo" id="input-candidate.photo-11" name="candidate.photo" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1018,6 +1382,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/msword, application/vnd.openxmlformats-officedocument.wordprocessingml.document, application/pdf, application/vnd.oasis.opendocument.text, application/rtf, text/plain, image/png, image/jpeg" aria-describedby="input-candidate.coverletterfile-14-error input-candidate.coverletterfile-15" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.coverletterfile-16" autocomplete="off" data-cy="candidate.coverletterfile" id="input-candidate.coverletterfile-14" name="candidate.coverletterfile" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>upload fileaccepted files: png, jpg and jpeg up to 20 mb.cover letterupload your cover letter</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1033,6 +1407,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584518.file-19-error input-candidate.openquestionanswers.4584518.file-20" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.openquestionanswers.4584518.file-21" autocomplete="off" data-cy="fileinputfield" id="input-candidate.openquestionanswers.4584518.file-19" name="candidate.openquestionanswers.4584518.file" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>upload fileaccepted files: pdf, doc, docx, jpeg and png up to 50mb.questionsalmost done! we have a few more questions for youcertificates</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1048,6 +1432,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584519.content-22-error" aria-invalid="false" autocomplete="on" class="sc-15kbb6z-0 lenswl" id="input-candidate.openquestionanswers.4584519.content-22" maxlength="255" name="candidate.openquestionanswers.4584519.content" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>upload filesalary expectations</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1063,6 +1457,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584520.content-23-error" aria-invalid="false" autocomplete="on" class="sc-15kbb6z-0 lenswl" id="input-candidate.openquestionanswers.4584520.content-23" maxlength="255" name="candidate.openquestionanswers.4584520.content" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>notice period</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1078,6 +1482,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584521.content-24-error" aria-invalid="false" autocomplete="on" class="sc-15kbb6z-0 lenswl" id="input-candidate.openquestionanswers.4584521.content-24" maxlength="255" name="candidate.openquestionanswers.4584521.content" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>street &amp; house number*</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1093,6 +1507,16 @@
           <t>house number</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584522.content-25-error" aria-invalid="false" autocomplete="on" class="sc-15kbb6z-0 lenswl" id="input-candidate.openquestionanswers.4584522.content-25" maxlength="255" name="candidate.openquestionanswers.4584522.content" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>plz*</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1108,6 +1532,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584523.content-26-error" aria-invalid="false" autocomplete="on" class="sc-15kbb6z-0 lenswl" id="input-candidate.openquestionanswers.4584523.content-26" maxlength="255" name="candidate.openquestionanswers.4584523.content" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>location*</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1123,6 +1557,16 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584524.content-27-error" aria-invalid="false" autocomplete="on" class="sc-15kbb6z-0 lenswl" id="input-candidate.openquestionanswers.4584524.content-27" maxlength="255" name="candidate.openquestionanswers.4584524.content" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1138,6 +1582,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584525.multicontent-28-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4584525.multicontent-28-0" name="candidate.openquestionanswers.4584525.multicontent" type="checkbox" value="recommendation"/&gt;</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>How did you find out about us?</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1153,6 +1607,16 @@
           <t>recommender</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584525.multicontent-28-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4584525.multicontent-28-1" name="candidate.openquestionanswers.4584525.multicontent" type="checkbox" value="event"/&gt;</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>recommendation</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1168,6 +1632,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584525.multicontent-28-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4584525.multicontent-28-2" name="candidate.openquestionanswers.4584525.multicontent" type="checkbox" value="website"/&gt;</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1183,6 +1657,16 @@
           <t>website</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584525.multicontent-28-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4584525.multicontent-28-3" name="candidate.openquestionanswers.4584525.multicontent" type="checkbox" value="jobportal"/&gt;</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1198,6 +1682,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584525.multicontent-28-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4584525.multicontent-28-4" name="candidate.openquestionanswers.4584525.multicontent" type="checkbox" value="karrieremagazin"/&gt;</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>jobportal</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1213,6 +1707,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584525.multicontent-28-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4584525.multicontent-28-5" name="candidate.openquestionanswers.4584525.multicontent" type="checkbox" value="messe"/&gt;</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>career magazine</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1228,6 +1732,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584525.multicontent-28-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4584525.multicontent-28-6" name="candidate.openquestionanswers.4584525.multicontent" type="checkbox" value="anders"/&gt;</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>fair</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1243,6 +1757,16 @@
           <t>workherebefore</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584526.content-29-error undefined" aria-invalid="false" class="sc-1omxthk-3 eybpvm" id="input-candidate.openquestionanswers.4584526.content-29-0" name="candidate.openquestionanswers.4584526.content" type="radio" value="no"/&gt;</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>otherwise were you recruited by a Melitta employee?</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1258,6 +1782,16 @@
           <t>workherebefore</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4584526.content-29-error undefined" aria-invalid="false" class="sc-1omxthk-3 eybpvm" id="input-candidate.openquestionanswers.4584526.content-29-1" name="candidate.openquestionanswers.4584526.content" type="radio" value="yes"/&gt;</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1273,6 +1807,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&lt;input aria-invalid="false" aria-labelledby="input-candidate.agreements.0.consent-30-0" class="sc-17ac6n8-0 sodwz" name="candidate.agreements.0.consent" required="" type="checkbox" value="false"/&gt;</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>yeslegal agreements</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1288,6 +1832,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>&lt;button aria-busy="false" aria-live="polite" class="sc-s03za1-0 wioki sc-csisgn-0 cwtvvq" type="submit"&gt;Send&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Data protection We process the personal data (hereinafter referred to as applicant data) of an applicant for the purpose of carrying out our application process and, if the application process is successfully completed, for the establishment and implementation of the future employment relationship. The legal basis for this processing is Section 26 of the new Federal Data Protection Act in conjunction with Article 6, Paragraph 1, Letter b) of the GDPR for the performance of a contract or for the implementation of pre-contractual measures. We will use the applicant data as part of the application process to contact you by telephone or electronically (e.g. by email). We expressly do not collect or request any special category data pursuant to Article 9, Paragraph 1 of the GDPR (e.g. on religious affiliation or ethnic origin) as part of the application process. If the applicant voluntarily submits special categories of data in his or her application documents, we process this data on the legal basis of Section 26 of the new Federal Data Protection Act in conjunction with Article 9, Paragraph 2 of the GDPR. The application process is carried out internally by Melitta Business Service Center GmbH &amp; Co. KG, Minden. We only pass on your personal data within our company to the departments and persons who need this data to fulfil contractual and legal obligations. If we work with a service provider for the advertised position, the applicant data may be processed by the service provider, insofar as this is permissible within the scope of the purposes and legal bases set out. After the application process has ended, the application documents are deleted unless a statutory retention period (e.g. from the General Data Protection Act, German Civil Code, Social Code) requires longer storage or the applicant has given his or her consent for longer storage. We will incorporate the demographic data from the application into an anonymous statistical evaluation. If we process the applicant data on the legal basis of the applicant's consent in accordance with Art. 6 Para. 1 Letter a) GDPR, this consent can be revoked by the applicant at any time with effect for the future in text form (e.g. by sending a corresponding e-mail to the assigned processor with the request to revoke it). The legality of the data processing operations carried out up to the revocation remains unaffected by the revocation. Furthermore, we refer to our general data protection declaration. I agree and confirm that I am at least 16 years old. *Send</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1303,6 +1857,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;input class="sc-e24f7df2-0 besmsh" name="firstname" placeholder="erika" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ntitlement(optional)mr.mrs.no informationfirstname</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1318,6 +1882,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>&lt;input class="sc-e24f7df2-0 besmsh" name="lastname" placeholder="mustermann" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1333,6 +1907,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>&lt;input class="sc-e24f7df2-0 besmsh" name="email" placeholder="erika.mustermann@email.de" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>e-mail</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1348,6 +1932,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>&lt;input class="sc-e24f7df2-0 besmsh" name="phone" placeholder="+49 123 2222 2222" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>cell phone (optional)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1363,6 +1957,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" class="form-control" id="applicationform-firstname" name="applicationform[firstname]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>applicant/intitleplease selectmrmrsotherfirstname</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1378,6 +1982,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" class="form-control" id="applicationform-lastname" name="applicationform[lastname]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>lastname</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1393,6 +2007,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" class="form-control" id="applicationform-email" name="applicationform[email]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>e-mail-address</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1408,6 +2032,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" class="form-control" id="applicationform-phonenumber" name="applicationform[phonenumber]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>phone number</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1423,6 +2057,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" class="defaultfileinput" data-file-name="file_cv" data-fileuploader-max-file-size="20971520" data-js-fileuploader="upgraded-field" id="applicationform-file_cv" multiple="multiple" name="applicationform[file_cv][]" style="position: absolute; z-index: -9999; height: 0px; width: 0px; padding: 0px; margin: 0px; line-height: 0; outline: 0px; border: 0px; opacity: 0;" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>application documents</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1438,6 +2082,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" class="required" id="applicationform-termsandconditions" name="applicationform[termsandconditions]" type="checkbox" value="1"/&gt;</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>select files to uploadselect filesallowed file formats: doc, docx, odt, xls, xlsx, odt, pdf, jpeg, jpg, gif, png</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1453,6 +2107,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.onapply.de/datenschutz" target="_blank"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1468,6 +2132,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>&lt;button class="w-button bfbewerbenbutton" name="login-button" style="background-color: #34495e;color:#ffffff;" type="submit"&gt;apply&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1483,6 +2157,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>&lt;input class="application-file-input invisible-resume-upload" data-qa="input-resume" id="resume-upload-input" name="resume" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ubmit your application✱select...berlin, germanyamsterdam, netherlandsdublin, irelandlisbon, portugallondon, united kingdommadrid, spainmilan, italyparis, franceriga, latviastockholm, swedenvienna, austriawarsaw, poland✱attach resume/cv</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1498,6 +2182,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>&lt;input data-qa="name-input" name="name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>✱</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1513,6 +2207,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>&lt;input data-qa="email-input" name="email" pattern="[a-za-z0-9.#$%&amp;amp;'*+\/=?^_`{|}~][a-za-z0-9.!#$%&amp;amp;'*+\/=?^_`{|}~-]*@[a-za-z0-9](?:[a-za-z0-9-]{0,61}[a-za-z0-9])?(?:\.[a-za-z0-9](?:[a-za-z0-9-]{0,61}[a-za-z0-9])?)*" required="" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>✱</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1528,6 +2232,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>&lt;input data-qa="phone-input" name="phone" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1543,6 +2257,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;input class="location-input" data-qa="location-input" id="location-input" maxlength="100" name="location" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>current location</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1558,6 +2282,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>&lt;input name="urls[linkedin]" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>links✱</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1573,6 +2307,16 @@
           <t>twitter</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>&lt;input name="urls[twitter]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>twitter url</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1588,6 +2332,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>&lt;input name="urls[github]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>github url</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1603,6 +2357,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>&lt;input name="urls[portfolio]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>portfolio url</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1618,6 +2382,16 @@
           <t>website</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;input name="urls[other]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>other website</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1633,6 +2407,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;input name="consent[marketing]" type="checkbox" value="1"/&gt;</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>additional information (completion is voluntary and will not subject you to adverse treatment) our company values ​​diversity. To ensure that we comply with reporting requirements and to learn more about how we can increase diversity in our candidate pool, we invite you to voluntarily provide demographic information in a confidential survey at the end of this application. providing this information is optional. it will not be accessible or used in the hiring process, and has no effect on your opportunity for employment.genderselect ...malefemaledecline to self-identifyselect ...hispanic or latinowhite (not hispanic or latino)black or african american (not hispanic or latino)native hawaiian or other pacific islander (not hispanic or latino)asian (not hispanic or latino)american indian or alaska native (not hispanic or latino)two or more races (not hispanic or latino)decline to self-identifyveteran statusselect . ..I am a veteranI am not a veterandecline to self-identify</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1648,6 +2432,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>&lt;button class="postings-btn template-btn-submit hex-color" data-qa="btn-submit" href="#" id="btn-submit" type="button"&gt;submit application&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>yes, outrider can contact me about future job opportunities for up to 2 yearssubmit application</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1663,6 +2457,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="first_name" placeholder="first_name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ame *</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1678,6 +2482,12 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="last_name" placeholder="surname" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1693,6 +2503,16 @@
           <t>birth</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control datetimepicker-input" data-target="#birthday" name="birthday" placeholder="dd.mm.yyyy" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>date of birth</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1708,6 +2528,16 @@
           <t>sex</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_419130" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>gender *please select...malefemalediverseundeterminednationality *</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1723,6 +2553,16 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_419131" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2. nationality</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1738,6 +2578,16 @@
           <t>zip</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_419137" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>zip code *</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1753,6 +2603,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="location" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1768,6 +2628,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_419135" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>street</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1783,6 +2653,16 @@
           <t>house number</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_419136" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>house number</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1798,6 +2678,16 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_419132" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>highest school qualification *</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1813,6 +2703,16 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_419133" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>highest educational qualification *</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1828,6 +2728,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="salary_expectations" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>salary expectations</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1843,6 +2753,16 @@
           <t>xing</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_401363" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>xing</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1858,6 +2778,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_401362" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1873,6 +2803,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>&lt;a class="privacy-policy-link" data-locale="de" href="javascript:void();"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1890,6 +2830,18 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>&lt;button class="career-btn-shape career-btn-primary mt-3 career-submit-application-btn" disabled="" type="submit"&gt;
+Submit application
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>*Submit application</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -1907,6 +2859,18 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>&lt;button class="career-btn-shape career-btn-secondary mt-3 cancel" type="button"&gt;
+cancel
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -1922,6 +2886,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>&lt;button class="sc-jotjna fnrczm" type="submit"&gt;apply now&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>CV / resume*terms and conditionsprivacy policyapply now</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -1937,6 +2911,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1214" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>linkedin profile</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -1944,7 +2928,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>input class="search-box" type="search" placeholder="how can we help?" value="" spellcheck="false" name="query"&gt;</t>
+          <t>&lt;input class="search-box" type="search" placeholder="how can we help?" value="" spellcheck="false" name="query"&gt;</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -1952,6 +2936,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;input class="search-box" name="query" placeholder="how can we help?" spellcheck="false" type="search" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -1967,6 +2957,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>&lt;button class="search-icon" type="submit"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -1982,6 +2978,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>&lt;input class="defaultfileinput" data-file-name="file_cv" data-fileuploader-max-file-size="20971520" data-js-fileuploader="upgraded-field" id="applicationform-file_cv" multiple="multiple" name="applicationform[file_cv][]" style="position: absolute; z-index: -9999; height: 0px; width: 0px; padding: 0px; margin: 0px; line-height: 0; outline: 0px; border: 0px; opacity: 0;" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>optional: application documents (if not to hand, these can be submitted later)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -1997,6 +3003,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>&lt;button class="w-button bfbewerbenbutton" name="login-button" style="background-color: #014089;color:#ffffff;" type="submit"&gt;apply&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2012,6 +3028,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_359470" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>This is how I became aware of opasca: *</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2027,6 +3053,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="available_from" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>available from</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2042,6 +3078,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_482332" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2057,6 +3103,16 @@
           <t>xing</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_482333" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>xing</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2072,6 +3128,12 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>&lt;textarea attachments""="" class="input-block-level js-autosize" data-slnm="applicationform-coverletterborder" id="ida" name="coverletterborder:coverletterborder_body:coverletter" other="" placeholder="insert cover letter here or upload under " rows="4" style="overflow: hidden; overflow-wrap: break-word; resize: horizontal; height: 99.6px;"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2087,6 +3149,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;input class="input-block-level" id="id12" name="questions:questions:0:question:border:border_body:answer" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>questions*</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2102,6 +3174,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>&lt;input data-slnm="applicationform-checkbox_createnetworkaccountaccepted" id="id13" name="createnetworkaccountborder:labelcontainer:createnetworkaccountborder_body:sgnetworkpolicyaccepted" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>create an account with softgarden to track the status of your applications in real time and apply in the future with one click.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2117,6 +3199,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>&lt;input data-slnm="applicationform-input_acceptprivacypolicy" id="id14" name="acceptprivacypolicyborder:labelcontainer:acceptprivacypolicyborder_body:acceptprivacypolicy" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2132,6 +3220,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-primary btn-large btn-submit" data-slnm="applicationform-input_buttonsubmit" id="id16" type="button"&gt;submit application&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>** mandatory field submit application</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2147,6 +3245,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf,.doc,.docx," data-role="cv-file" id="upload-resume" name="samplefile" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>CV and attachmentsPlease select an option and upload your CV:*document</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2162,6 +3270,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf,.jpg,.jpeg,.gif,.png,.bmp,.tif,.tiff,.doc,.ppt,.pps,.docx,.pptx,.ppsx,.odt,.rtf,.odp,.txt" data-role="attachment-files" id="upload-input" multiple="" name="samplefile" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>xingsoftgarden</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2177,6 +3295,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>&lt;button class="button-1jdag button-jyhjj" data-i18n="widget.application.first_step.btn_next_step" data-role="go-to-second-step-button" type="submit"&gt;to the next step&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>to the next step</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2192,6 +3320,16 @@
           <t>next</t>
         </is>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;a class="ps-button" href="javascript:void(0)" id="bei_cg_hdr_wrk_hrs_apply_pb" onclick="document.queryselector(' #applyjob,#hrs_sch_wrk_hrs_apply_pb').click();" ptlinktgt="pt_replace" role="button"&gt;apply now&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>ib trainees - secretariat general - economics department - based in luxembourgapply now</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2207,6 +3345,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>&lt;a class="ps-link" href="javascript:submitaction_win0(document.win0,'bei_eif_link');" id="bei_eif_link" onclick="javascript:cancelbubble(event);" ptlinktgt="pt_peoplecode"&gt;eif&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>eif</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2222,6 +3370,16 @@
           <t>cookie</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>&lt;a aria-label="dismiss" class="bei_cg_notification-cookieconsent-close" onclick="beiclosenotification('.bei_cg_notification-cookieconsent');" role="button" tabindex="0" title="close cookie consent notification"&gt;x&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2237,6 +3395,16 @@
           <t>cookie</t>
         </is>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>&lt;button id="erecruitment_consent-details" onclick="$('.bei_cg_consent-details').toggle();" type="button"&gt;show/hide consent details&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>our website uses anonymised cookies to give you the best browsing experience and to collect aggregated statistics. this does not include online advertising cookies.show/hide consent details</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2252,6 +3420,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="phone" placeholder="+49 176 123 4455" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2267,6 +3445,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="given-name" id="first_name" maxlength="255" name="job_application[first_name]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>apply for this job**</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2282,6 +3470,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="family-name" id="last_name" maxlength="255" name="job_application[last_name]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2297,6 +3495,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="email" id="email" maxlength="255" name="job_application[email]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2312,6 +3520,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="tel" id="phone" maxlength="255" name="job_application[phone]" required="required" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2327,6 +3545,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>&lt;button aria-describedby="resume-allowable-file-types" class="unstyled-button link-button" data-source="attach" name="button" type="button"&gt;attach&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>*attach</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2342,6 +3570,16 @@
           <t>dropbox</t>
         </is>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>&lt;a data-source="dropbox" href="#"&gt;dropbox&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>dropbox</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2357,6 +3595,16 @@
           <t>googledrive</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>&lt;a data-source="google-drive" href="#"&gt;google drive&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>google drive</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2372,6 +3620,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>&lt;button aria-pressed="false" class="unstyled-button link-button" data-source="paste" name="button" type="button"&gt;or enter manually&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>or enter manually</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2387,6 +3645,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>&lt;button aria-describedby="cover_letter-allowable-file-types" class="unstyled-button link-button" data-source="attach" name="button" type="button"&gt;attach&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>(file types: pdf, doc, docx, txt, rtf)cover letterattach</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2402,6 +3670,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-over-which-channeljob-board-did-you-find-our-vacancy" id="job_application_answers_attributes_0_text_value" maxlength="255" name="job_application[answers_attributes][0][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>(file types: pdf, doc, docx, txt, rtf)*</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2417,6 +3695,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-how-much-longer-do-you-expect-to-be-enrolled-as-a-student" id="job_application_answers_attributes_1_text_value" maxlength="255" name="job_application[answers_attributes][1][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2432,6 +3720,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-what-are-your-salary-expectations-per-hour" id="job_application_answers_attributes_2_text_value" maxlength="255" name="job_application[answers_attributes][2][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2447,6 +3745,16 @@
           <t>work hours</t>
         </is>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-how-many-hours-per-week-are-you-available" id="job_application_answers_attributes_3_text_value" maxlength="255" name="job_application[answers_attributes][3][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2462,6 +3770,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-what-is-your-earliest-starting-date-notice-period" id="job_application_answers_attributes_4_text_value" maxlength="255" name="job_application[answers_attributes][4][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2477,6 +3795,16 @@
           <t>visa</t>
         </is>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-required="true" autocomplete="custom-question-if-applicable-what-visa-do-you-currently-hold-and-how-long-is-it-valid" id="job_application_answers_attributes_5_text_value" name="job_application[answers_attributes][5][text_value]"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2492,6 +3820,12 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-linkedin-profile" id="job_application_answers_attributes_6_text_value" maxlength="255" name="job_application[answers_attributes][6][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -2507,6 +3841,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.berlin-brands-group.com/en/privacy-policy"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>*privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -2522,6 +3866,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.berlin-brands-group.com/en/privacy-policy#declaration"&gt;declaration of explicit consent&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>declaration of explicit consent</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2537,6 +3891,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" id="job_application_data_compliance_gdpr_consent_given" name="job_application[data_compliance][gdpr_consent_given]" required="required" type="checkbox" value="true"/&gt;</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2552,6 +3912,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;input class="button" id="submit_app" type="button" value="submit application"/&gt;</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2567,6 +3937,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="ph-a11y-email-job-name-field-error" aria-required="true" au-target-id="54" autocomplete="name" class="form-control ph-a11y-form-control-name fs-block au-target" data-ph-at-id="name-input" data-ph-id="ph-page-element-page7-lomw8a" id="email-job-name" key-placeholder="ph-email-job-v1-simple-form-57oixp-3ssnyu" name="email-job-name" placeholder="your name" type="text" value.bind="emailjobmodel.name"/&gt;</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>our name</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2582,6 +3962,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="ph-a11y-email-job-email-field-error" au-target-id="57" autocomplete="email" class="form-control ph-a11y-form-control-email fs-block au-target" data-ph-at-id="email-input" data-ph-id="ph-page-element-page7-t7t4xr" id="email-job-email" key-placeholder="ph-email-job-v1-simple-form-57oixp-tkuq6q" name="email-job-email" placeholder="recipient email" type="text" value.bind="emailjobmodel.email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>recipient email</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -2599,6 +3989,18 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="submit email this job to form" class="btn primary-button submit-btn ph-a11y-email-submit" data-ph-at-id="send-button" data-ph-id="ph-page-element-page7-i6hiys" key-aria-label="ph-email-job-v1-simple-form-57oixp-jq9hgp" type="submit"&gt;
+submit
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>submit</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -2606,7 +4008,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>input type="search" placeholder="search"&gt;</t>
+          <t>&lt;input type="search" placeholder="search"&gt;</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2614,6 +4016,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>&lt;input placeholder="search" type="search"/&gt;</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -2629,6 +4037,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>&lt;input data-slnm="applicationform-checkbox_createnetworkaccountaccepted" id="id12" name="createnetworkaccountborder:labelcontainer:createnetworkaccountborder_body:sgnetworkpolicyaccepted" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>create an account with softgarden to track the status of your applications in real time and apply in the future with one click.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -2644,6 +4062,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>&lt;input data-slnm="applicationform-input_acceptprivacypolicy" id="id13" name="acceptprivacypolicyborder:labelcontainer:acceptprivacypolicyborder_body:acceptprivacypolicy" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -2659,6 +4083,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-primary btn-large btn-submit" data-slnm="applicationform-input_buttonsubmit" id="id15" type="button"&gt;submit application&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>** mandatory field submit application</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -2674,6 +4108,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_415663" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>How did you find out about us? (social media, website, linkedin, xing or through your personal network?) *</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -2689,6 +4133,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_150769" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -2696,7 +4150,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>input type="file" class="file-input" name="az-f" id="az-f" required="" accept=".pdf,.doc,.docx,.png,.gif,.jpeg,.odt,.jpg"&gt;</t>
+          <t>&lt;input type="file" class="file-input" name="az-f" id="az-f" required="" accept=".pdf,.doc,.docx,.png,.gif,.jpeg,.odt,.jpg"&gt;</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2704,6 +4158,12 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf,.doc,.docx,.png,.gif,.jpeg,.odt,.jpg" class="file-input" id="az-f" name="az-f" required="" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -2719,6 +4179,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>&lt;input id="az-datenschutz" name="az-datenschutz" required="" type="checkbox" value="true"/&gt;</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>formats: pdf, doc, docx, png, gif, jpeg, odt. maximum file size: 10mb.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -2734,6 +4204,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.akko-personal.de/datenschutz/" target="_blank"&gt;data protection information for applicants&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>data protection information for applicants</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -2749,6 +4229,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.akko-personal.de/datenschutz-web/einwilligungserklaerung/" target="_blank"&gt;declaration of consent&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>declaration of consent</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -2756,7 +4246,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>input type="text" id="prenom" name="prenom" maxlength="30" class="form-control" placeholder="first name" value="" required="required"&gt;</t>
+          <t>&lt;input type="text" id="prenom" name="prenom" maxlength="30" class="form-control" placeholder="first name" value="" required="required"&gt;</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -2764,6 +4254,12 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" id="prenom" maxlength="30" name="prenom" placeholder="first name" required="required" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -2779,6 +4275,12 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" id="nom" maxlength="50" name="nom" placeholder="last name" required="required" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -2794,6 +4296,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" id="email" maxlength="100" name="email" onchange="validateemail(this.value)" placeholder="email" required="required" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -2809,6 +4317,12 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" id="tel" maxlength="20" name="tel" placeholder="phone" type="tel" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -2824,6 +4338,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,application/msword, application/vnd .openxmlformats-officedocument.wordprocessingml.document,image/jpg, image/jpeg, image/png" class="form-control" name="cv" onchange="upload_check()" placeholder="cv / resume" required="required" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>our cv / resume - format : pdf, doc, jpg, png | max : 2mo</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -2839,6 +4363,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>&lt;input class="btn btn-light btn-radius btn-brd ban-btn" name="envoi" type="submit" value="apply"/&gt;</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>click here !</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -2854,6 +4388,12 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" data-field-name="personal_info.first_name" name="personal_info.first_name" placeholder="first name" required="" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -2869,6 +4409,12 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" data-field-name="personal_info.last_name" name="personal_info.last_name" placeholder="last name" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -2884,6 +4430,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" data-field-name="personal_info.email" name="personal_info.email" required="" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -2899,6 +4455,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" data-field-name="personal_info.linkedin_profile" name="personal_info.linkedin_profile" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>linkedin profile</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -2914,6 +4480,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="file-upload" data-field-name="candidate_profile.resume" id="candidate_profile.resume" name="candidate_profile.resume" style="display:none;width:1px;height:1px;" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>*choose file</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -2929,6 +4505,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>&lt;a href="/jobsuche.aspx" target="" title="job search for non-registered candidates"&gt; job search&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>job search</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -2944,6 +4530,16 @@
           <t>login</t>
         </is>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>&lt;a href="#" onclick="showlogin(this,0); return false;" style="color: inherit !important; text-decoration: none !important;"&gt;login&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>applicationlogin</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -2959,6 +4555,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>&lt;a class="so-cv pointer" href="javascript:__dopostback('ctl00$maincontent$detailscontrol$ctl00$ctl00$cvbutton','')" id="ctl00_maincontent_detailscontrol_ctl00_ctl00_cvbutton" onclick="opencvpopup();"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>form</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -2974,6 +4580,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>&lt;a class="so-xing" href="javascript:__dopostback('ctl00$maincontent$detailscontrol$ctl00$ctl00$xingbtn','')" id="ctl00_maincontent_detailscontrol_ctl00_ctl00_xingbtn"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>resume</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -2989,6 +4605,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".doc, .docm, .docx, .pdf, rtf, .html, .htm" id="cvfileupload" name="ctl00$maincontent$applycv$cvfileupload" onchange="if (this.value != '') { document.getelementbyid('ctl00_maincontent_applycv_btnuploadcv').click(); }" style="display: none;" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>xingvalid email addressapplication options:form:if you do not have a resume to hand and are not registered with one of the social media platforms mentioned, please choose to apply using the form.resume:here your resume will be automatically read in and transferred directly to the database. depending on the complexity, the process can take up to a minute. you can then check your data in the system and edit it again. the following file formats are recommended: .doc, .docm, .docx, .pdf, rtf, .html, .htmxing:you can also have the information from your xing profile transferred. here too, it is precisely listed which data is transferred. you log in to xing during this process and should therefore open xing and log out again after completing the application. Here, too, you can revoke permission for the external application "Applying to Akkodis" at any time via the settings. We wish you every success with your application and your next career steps!</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3004,6 +4630,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>&lt;a class="navbar-btn btn-link btn" href="terms of use.aspx" target="_blank"&gt;terms of use&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>terms of use</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3019,6 +4655,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>&lt;a class="navbar-btn btn-link btn" href="https://www.akkodis.com/de/deutschland/datenschutz" target="_blank"&gt;data protection&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>data protection</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3034,6 +4680,16 @@
           <t>cookie</t>
         </is>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>&lt;a class="navbar-btn btn-link btn" href="https://www.akkodis.com/de/cookie-richtlinien" target="_blank"&gt;cookie-policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>cookie-policy</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3049,6 +4705,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1561999" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>available from which date onwards / notice period *</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3064,6 +4730,12 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="textfieldinput-iev64 textfieldinput-zzu80" data-i18n="[placeholder]widget.application.first_step.covering_letter_placeholder" id="coverlettertext" name="coverlettertext" placeholder="cover letter (optional)" style="overflow: hidden; overflow-wrap: break-word; resize: none; height: 56.6px;"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3079,6 +4751,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control validate_apply_element" name="sname" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>oftware engineer c++ (m/f/d)</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3094,6 +4776,12 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control validate_apply_element" name="name" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3109,6 +4797,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control validate_apply_element validate_email" name="mail" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3124,6 +4818,12 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control validate_apply_element" name="phone" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3139,6 +4839,12 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="form-control" name="letter" rows="10"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3154,6 +4860,12 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control validate_apply_element" name="salery" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3169,6 +4881,12 @@
           <t>birth</t>
         </is>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control validate_apply_element hasdatepicker" data-toggle="datepicker" id="dp1715511331078" name="date" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3184,6 +4902,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>&lt;input id="privacy" name="privacy" type="checkbox" value="1"/&gt;</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>appendixdata protection provisions for applicationsas of September 2022processing for establishing contactprocessing in the applicant pooltransmission of qualification profilesdeletion of dataright of objection</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3199,6 +4927,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control btn-primary top25" data-action="submit" data-callback="onsubmit" data-sitekey="6le2djygaaaaakfposmh9tnw7ya4fasznjk1flq8" name="submit" type="submit" value="apply now!"/&gt;</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I agree to the above data protection regulations.</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3206,7 +4944,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>input type="email" autocomplete="email" id="job-alert-email" name="job-alert-email" placeholder="your e-mail address" required=""&gt;</t>
+          <t>&lt;input type="email" autocomplete="email" id="job-alert-email" name="job-alert-email" placeholder="your e-mail address" required=""&gt;</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3214,6 +4952,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" id="job-alert-email" name="job-alert-email" placeholder="your e-mail address" required="" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3229,6 +4973,12 @@
           <t>birth</t>
         </is>
       </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control validate_apply_element hasdatepicker" data-toggle="datepicker" id="dp1715511429038" name="date" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -3244,6 +4994,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="tel" id="phone" maxlength="255" name="job_application[phone]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -3259,6 +5019,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-linkedin-profile" id="job_application_answers_attributes_0_text_value" maxlength="255" name="job_application[answers_attributes][0][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>(file types: pdf, doc, docx, txt, rtf)</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -3274,6 +5044,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-required="true" autocomplete="custom-question-what-are-your-salary-expectations" id="job_application_answers_attributes_2_text_value" name="job_application[answers_attributes][2][text_value]"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -3289,6 +5069,16 @@
           <t>xing</t>
         </is>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_458815" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>xing</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -3304,6 +5094,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_458814" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -3311,7 +5111,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>input style="display:none" type="file" id="form_field_resume" accept=".pdf" name="resume"&gt;</t>
+          <t>&lt;input style="display:none" type="file" id="form_field_resume" accept=".pdf" name="resume"&gt;</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3319,6 +5119,12 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf" id="form_field_resume" name="resume" style="display:none" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -3334,6 +5140,12 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf" id="form_field_coverletter" name="coverletter" style="display:none" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -3349,6 +5161,12 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf" id="form_field_3efc62059d5710009c14daa0deb30003" name="3efc62059d5710009c14daa0deb30003" style="display:none" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -3364,6 +5182,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="location" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>location *</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -3379,6 +5207,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1064938" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -3394,6 +5232,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1064950" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -3409,6 +5257,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="input-block-level js-autosize" id="id12" name="questions:questions:0:question:border:border_body:answer" style="overflow: hidden; overflow-wrap: break-word; resize: horizontal; height: 55.6px;"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>questions*</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -3424,6 +5282,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>&lt;input class="apply-application-process-renderer-zxan8r" data-genesis-element="form_input" data-testid="rlac-email-input" id="stepstone-form-element-27" placeholder="enter email address" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-mail-address</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -3439,6 +5307,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>&lt;input id="applicant_name" name="applicant_name" size="16" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>name:</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -3454,6 +5332,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>&lt;input id="from_email" name="from_email" size="16" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>please include your first and last name.email:@</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -3469,6 +5357,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>&lt;input id="phone" name="phone" size="16" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>phone:</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -3484,6 +5382,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>&lt;input class="input-file" id="file" name="thefilename" size="16" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>please include your country code.cv / resume:</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -3499,6 +5407,12 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>&lt;input class="btn btn-success btn-large" id="submit_btn" type="submit" value="apply now"/&gt;</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -3506,7 +5420,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>input type="text" class="keywordsearch-q columnized-search" name="q" placeholder="search by keyword" maxlength="50" aria-label="search by keyword"&gt;</t>
+          <t>&lt;input type="text" class="keywordsearch-q columnized-search" name="q" placeholder="search by keyword" maxlength="50" aria-label="search by keyword"&gt;</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3514,6 +5428,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>&lt;input aria-label="search by keyword" class="keywordsearch-q columnized-search" maxlength="50" name="q" placeholder="search by keyword" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -3529,6 +5449,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>&lt;a aria-controls="moreoptionsdiv" aria-expanded="false" class="search-option-link btn-link" data-lessoptions="show fewer options" data-moreoptions="show more options" data-target=".optionsdiv" data-toggle="collapse" href="javascript:void(0)" id="options-search" rel="advance" role="button"&gt;show more options&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>show more options</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -3544,6 +5474,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>&lt;input class="btn keywordsearch-button" type="submit" value="search jobs"/&gt;</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -3559,6 +5495,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="name" class="name" data-error-name="the first name" data-required="true" name="name" placeholder="enter first name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Now become part of the talent network and always stay up to date on new events, current news and suitable jobs.Please select titlePlease selectMrMrsOther*</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -3574,6 +5520,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="last_name" class="last_name" data-error-name="enter the last name" data-required="true" name="last_name" placeholder="enter last name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -3589,6 +5545,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" class="email" data-error-name="the e-mail address" data-required="true" name="email" placeholder="please enter e-mail" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -3604,6 +5570,16 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="currentplaceofresidence geosearchtextfield-1715513559653 pac-target-input" data-error-name="theplaceofresidence" data-places="true" data-required="true" data-type="custom" name="currentplaceofresidence" placeholder="please enter place of residence" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -3619,6 +5595,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>&lt;a href="/datenschutz" rel="nofollow" target="_blank"&gt;data protection and terms of use&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>*(multiple selections possible)please selectcommercialsemester thesis/project worktechnical*(multiple selections possible)please selectgraduates and experienced professionalspupils and traineesstudentsdata protection and terms of use</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -3634,6 +5620,12 @@
           <t>register</t>
         </is>
       </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>&lt;input class="talentnetwork-register-submit talentnetwork-submit talentnetwork-submit-register" type="submit" value="register now"/&gt;</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -3641,7 +5633,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>input autocomplete="off" placeholder="job title, keyword, company" type="text" aria-autocomplete="none" aria-expanded="false" aria-haspopup="listbox" class="sc-65a7a46e-2 crrjgi" role="combobox" value=""&gt;</t>
+          <t>&lt;input autocomplete="off" placeholder="job title, keyword, company" type="text" aria-autocomplete="none" aria-expanded="false" aria-haspopup="listbox" class="sc-65a7a46e-2 crrjgi" role="combobox" value=""&gt;</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -3649,6 +5641,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="none" aria-expanded="false" aria-haspopup="listbox" autocomplete="off" class="sc-65a7a46e-2 crrjgi" placeholder="job title, keyword, company" role="combobox" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -3664,6 +5662,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="none" aria-expanded="false" aria-haspopup="listbox" autocomplete="off" class="sc-65a7a46e-2 crrjgi" placeholder="city, zip code, region, home office" role="combobox" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -3679,6 +5683,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1545687" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -3694,6 +5708,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf,.ppt,.doc,.docx,.pptx,.xls,.xlsx,.tif,.tiff,.jpg,.bmp,.gif,.png,.txt,.rtf,.zip,.7z" id="file-upload-button" name="file-upload-button" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>ntitle*firstname*lastname*</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -3709,6 +5733,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_842955" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>link (portfolio / github / etc.)</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -3724,6 +5758,16 @@
           <t>recommender</t>
         </is>
       </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_2218266" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>name of the referrer</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -3739,6 +5783,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_992098" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>linkedin *</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -3754,6 +5808,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.name-8-error" aria-invalid="false" autocomplete="name" class="sc-15kbb6z-0 jsefjd" id="input-candidate.name-8" maxlength="255" name="candidate.name" placeholder="full name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>upload a fileaccepted files: pdf, doc, docx, jpeg and png up to 50mb.my informationfill out the information belowfull name*</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -3769,6 +5833,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.email-9-error" aria-invalid="false" autocomplete="email" class="sc-15kbb6z-0 jsefjd" id="input-candidate.email-9" maxlength="255" name="candidate.email" placeholder="your email address" required="" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>email address*</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -3784,6 +5858,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.phone-10-error" aria-invalid="false" autocomplete="tel" class="sc-15kbb6z-0 sc-1hkfaog-0 fkwzlw phoneinputinput" id="input-candidate.phone-10" name="candidate.phone" placeholder="your phone number" type="tel" value="+49"/&gt;</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>phone number</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -3799,6 +5883,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>&lt;button aria-busy="false" aria-live="polite" class="sc-s03za1-0 bilchp sc-csisgn-0 cwtvvq" type="submit"&gt;send&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>upload a fileaccepted files: pdf, doc, docx, jpeg and png up to 50mb.*send</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -3806,7 +5900,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>input type="search" placeholder="search"&gt;</t>
+          <t>&lt;input type="search" placeholder="search"&gt;</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -3814,6 +5908,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>&lt;input placeholder="search" type="search"/&gt;</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -3829,6 +5929,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_976036" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>linkedin *</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -3844,6 +5954,16 @@
           <t>birth</t>
         </is>
       </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control datetimepicker-input" data-target="#birthday" name="birthday" placeholder="dd.mm.yyyy" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>birthday *</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -3859,6 +5979,12 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="given-name" class="form-control form-control-lg flex-1" id="first_name" name="first_name" placeholder="first name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -3874,6 +6000,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="family-name" class="form-control form-control-lg" id="last_name" name="last_name" placeholder="last name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -3889,6 +6025,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" class="form-control form-control-lg" id="email" inputmode="email" name="email" placeholder="e-mail" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -3904,6 +6050,16 @@
           <t>recommender</t>
         </is>
       </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>&lt;a class="btn btn-link"&gt;referral code ("referral code")&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>referral code ("referral code")</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -3919,6 +6075,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://www.fehlungsbund.de/datenschutz#werbungsformular" target="_blank"&gt;privacy policy of the recommendation bund and its job communities here&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>privacy policy of the recommendation bund and its job communities here</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -3934,6 +6100,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-apply btn-lg my-2 opacity-50 shadow" data-v-4338a24e="" name="invalidbutton" role="button" style="font-size: 2rem;" type="submit"&gt;submit application&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>submit application</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -3949,6 +6125,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-required="true" autocomplete="custom-question-why-would-you-like-to-do-this-job-and-why-are-you-interested-to-work-for-moia" id="job_application_answers_attributes_0_text_value" name="job_application[answers_attributes][0][text_value]"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>(file types: pdf, doc, docx, txt, rtf)*</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -3964,6 +6150,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-required="true" autocomplete="custom-question-how-do-you-envision-your-ideal-working-environment" id="job_application_answers_attributes_1_text_value" name="job_application[answers_attributes][1][text_value]"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -3979,6 +6175,12 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-whats-your-linkedin-or-xing-profile" id="job_application_answers_attributes_2_text_value" maxlength="255" name="job_application[answers_attributes][2][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -3994,6 +6196,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-what-is-your-github-id-if-you-have-one" id="job_application_answers_attributes_3_text_value" maxlength="255" name="job_application[answers_attributes][3][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>we might need your github id in later stages of our hiring process.</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -4009,6 +6221,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-how-did-you-find-out-about-this-job" id="job_application_answers_attributes_4_text_value" maxlength="255" name="job_application[answers_attributes][4][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -4024,6 +6246,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://moia.app.box.com/s/0q4xo331d1tb3xuv07j67myi5l6eoxkl" target="_blank"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>*privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -4039,6 +6271,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" id="job_application_answers_attributes_5_answer_selected_options_attributes_0_question_option_id" name="job_application[answers_attributes][5][answer_selected_options_attributes][0][question_option_id]" set="5598149101" type="checkbox" value="24239025101"/&gt;</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -4054,6 +6292,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" id="job_application_answers_attributes_5_answer_selected_options_attributes_0_question_option_id" name="job_application[answers_attributes][5][answer_selected_options_attributes][0][question_option_id]" set="5599107101" type="checkbox" value="24247130101"/&gt;</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -4069,6 +6313,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>&lt;input class="__input" data-v-79d11e34="" id="first_name" name="first_name" placeholder="first name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>nterested? apply below.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -4084,6 +6338,12 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>&lt;input class="__input" data-v-79d11e34="" id="last_name" name="last_name" placeholder="last name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -4099,6 +6359,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>&lt;input class="__input" data-v-79d11e34="" id="email" name="email" placeholder="email" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -4114,6 +6380,12 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf, .txt, .docx, .doc, .rtf" class="__input" data-v-cc011de0="" name="resume" placeholder="resume/cv" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -4129,6 +6401,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>&lt;input class="__input" data-v-79d11e34="" id="phone" name="phone" placeholder="your answer" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>optionalphone</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -4144,6 +6426,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>&lt;input class="__input" data-v-79d11e34="" id="question_14944618003" name="question_14944618003" placeholder="your answer" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>linkedin profile</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -4159,6 +6451,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>&lt;input class="__input" data-v-79d11e34="" id="question_15679715003" name="question_15679715003" placeholder="your answer" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>your earliest starting date</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -4174,6 +6476,16 @@
           <t>sex</t>
         </is>
       </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="trselect__input" data-v-3010954f="" id="question_16301659003" name="question_16301659003" placeholder="your answer" readonly=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>what is your gender identity?we will use this information only for statistical purposes in relation to diversity reports and will anonymise it in line with our candidate's privacy policy (linked below).</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -4189,6 +6501,12 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf, .txt, .docx, .doc, .rtf" class="__input" data-v-cc011de0="" name="cover_letter" placeholder="cover letter" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -4204,6 +6522,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://assets.traderepublic.com/assets/files/privacy-candidate_en.pdf"&gt;here&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>here</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -4219,6 +6547,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>&lt;input class="apply-application-process-renderer-zxan8r" data-genesis-element="form_input" data-testid="rlac-email-input" id="stepstone-form-element-30" placeholder="enter email address" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>-mail-address</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -4234,6 +6572,16 @@
           <t>website</t>
         </is>
       </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>&lt;input data-qa="org-input" name="org" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>current company</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -4249,6 +6597,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>&lt;input name="urls[linkedin]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>linkslinkedin url</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -4264,6 +6622,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>&lt;input class="card-field-input" name="cards[3c4d5bc4-de5b-4754-af5f-a55a3f335db5][field0]" placeholder="type your response" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>salary expectationsif you want to share your salary expectations, feel free to do it here:</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -4279,6 +6647,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>&lt;textarea id="additional-information" name="comments" placeholder="add a cover letter or anything else you want to share."&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>additional information</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -4294,6 +6672,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>&lt;button class="postings-btn template-btn-submit cerulean" data-qa="btn-submit" href="#" id="btn-submit" type="button"&gt;submit application&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>submit application</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -4309,6 +6697,16 @@
           <t>city</t>
         </is>
       </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="list" aria-controls="location_autocomplete-items-popup" aria-expanded="false" aria-haspopup="listbox" aria-labelledby="location_autocomplete_label" autocomplete="off" id="auto_complete_input" maxlength="255" name="job_application[location]" role="combobox" spellcheck="false" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>location (city)</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -4324,6 +6722,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-github-account" id="job_application_answers_attributes_0_text_value" maxlength="255" name="job_application[answers_attributes][0][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>(file types: pdf, doc, docx, txt, rtf)</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -4339,6 +6747,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_992098" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -4354,6 +6772,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="given-name" class="mds-form-control" id="firstname" name="firstname" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>equired</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -4369,6 +6797,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="family-name" class="mds-form-control" id="lastname" name="lastname" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -4384,6 +6822,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" class="mds-form-control" id="email" name="email" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -4399,6 +6847,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".doc,.docx,.pdf,.rtf" aria-describedby=" cv-help-text" class="mds-form-control" id="cv" name="cv" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>requiredyour file must be a .doc, .pdf, .docx, or .rtf. no larger than 2mb</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -4414,6 +6872,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>&lt;input checked="checked" class="mds-form-check__input" id="cvdb-opt-in-checkbox" name="cvdatabaseoptin" type="checkbox" value="true"/&gt;</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>drag and drop choose a file</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -4429,6 +6897,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="send-cv-for-review-desc" class="mds-form-check__input" id="send-cv-review-checkbox" name="sendcvforreview" type="checkbox" value="true"/&gt;</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>save my cv for future job applications and share with recruiters to headhunt me for new roles</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -4444,6 +6922,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="list" aria-describedby="_pq_5-assistivehint" aria-expanded="false" aria-invalid="false" aria-owns="_pq_5-listbox" autocomplete="off" class="mds-form-control" id="_pq_5" name="_pq_5_locationname" placeholder="" role="combobox" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -4459,6 +6947,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>&lt;input class="mds-form-check__input" id="_pq_1594162-513217" name="_pq_1594162" type="checkbox" value="513217"/&gt;</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -4474,6 +6972,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>&lt;input class="mds-form-check__input" id="_pq_1594162-513218" name="_pq_1594162" type="checkbox" value="513218"/&gt;</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -4489,6 +6997,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>&lt;input class="mds-form-check__input" id="_pq_9-168" name="_pq_9" type="checkbox" value="168"/&gt;</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>norequired</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -4504,6 +7022,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>&lt;input class="mds-form-check__input" id="_pq_9-189" name="_pq_9" type="checkbox" value="189"/&gt;</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>clinical researchselect options under clinical research</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -4519,6 +7047,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>&lt;input class="mds-form-check__input" id="_pq_9-197" name="_pq_9" type="checkbox" value="197"/&gt;</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>data management / statisticsselect options under data management / statistics</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -4534,6 +7072,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>&lt;input class="mds-form-check__input" id="_up_sitemarketing-true" name="_up_sitemarketing" type="checkbox" value="true"/&gt;</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>email me similar jobs when they become availableyour communication preferences</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -4549,6 +7097,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>&lt;input class="mds-form-check__input" id="_up_thirdpartymarketing-true" name="_up_thirdpartymarketing" type="checkbox" value="true"/&gt;</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>i'd like to receive emails about jobs and services from pharmiweb.jobs</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -4564,6 +7122,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>&lt;a href="/terms-and-conditions"&gt;terms and conditions&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>I'd like to receive emails from third partiesterms and conditions</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -4579,6 +7147,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>&lt;a href="/privacy-policy"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -4586,7 +7164,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>input type="file" aria-invalid="false" data-has-input="false" accept=".pdf, .doc, .docx, .txt, .rtf" name="resume"&gt;</t>
+          <t>&lt;input type="file" aria-invalid="false" data-has-input="false" accept=".pdf, .doc, .docx, .txt, .rtf" name="resume"&gt;</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -4594,6 +7172,12 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf, .doc, .docx, .txt, .rtf" aria-invalid="false" data-has-input="false" name="resume" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -4609,6 +7193,12 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf, .doc, .docx, .txt, .rtf" aria-invalid="false" data-has-input="false" name="cover_letter" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -4624,6 +7214,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1242518" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -4639,6 +7239,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1242530" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>genderplease select …malefemalediverseundefinedgithub</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -4646,7 +7256,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>input type="search" autocomplete="off" aria-autocomplete="list" aria-controls="react-autowhatever-word" class="form-control qa-search-term" name="name" placeholder="jobtitle, keyword" aria-label="jobtitle, keyword" value=""&gt;</t>
+          <t>&lt;input type="search" autocomplete="off" aria-autocomplete="list" aria-controls="react-autowhatever-word" class="form-control qa-search-term" name="name" placeholder="jobtitle, keyword" aria-label="jobtitle, keyword" value=""&gt;</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -4654,6 +7264,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="list" aria-controls="react-autowhatever-word" aria-label="jobtitle, keyword" autocomplete="off" class="form-control qa-search-term" name="name" placeholder="jobtitle, keyword" type="search" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -4669,6 +7285,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="list" aria-controls="react-autowhatever-location" aria-label="location, zip code, home office" autocomplete="off" class="form-control qa-search-location" name="location" placeholder="location, zip code, home office" type="search" value="munich"/&gt;</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -4684,6 +7306,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>&lt;input aria-invalid="false" aria-label="what: job title, keywords or company" autocomplete="off" class="css-33odco e1jgz0i3" id="text-input-what" name="q" placeholder="job title or company" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -4699,6 +7331,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>&lt;input aria-invalid="false" aria-label="where: city, state or zip code" autocomplete="off" class="css-byulhf e1jgz0i3" id="text-input-where" name="l" placeholder="city, state or zip code" type="text" value="erlangen"/&gt;</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>where</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -4714,6 +7356,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>&lt;button class="css-au3piq e8ju0x51" type="submit"&gt;find jobs&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>find jobs</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -4729,6 +7381,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1257346" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -4744,6 +7406,16 @@
           <t>work hours</t>
         </is>
       </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1917534" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>How many hours can you work per week? *</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -4759,6 +7431,16 @@
           <t>workduration</t>
         </is>
       </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1917627" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>students/interns: how many months would you like to work for us?</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -4774,6 +7456,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/msword, application/vnd.openxmlformats-officedocument.wordprocessingml.document, application/pdf, application/vnd.oasis.opendocument.text, application/rtf, text/plain, image/png, image/jpeg" aria-describedby="input-candidate.cv-3-error input-candidate.cv-4" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.cv-5" autocomplete="off" data-cy="fileinputfield" id="input-candidate.cv-3" name="candidate.cv" required="" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>v or resume*upload your cv or resume file</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -4789,6 +7481,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.name-6-error" aria-invalid="false" autocomplete="name" class="sc-15kbb6z-0 cjtvdg" id="input-candidate.name-6" maxlength="255" name="candidate.name" placeholder="full name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>upload a fileaccepted files: pdf, doc, docx, jpeg and png up to 50mb.my informationfill out the information belowfull name*</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -4804,6 +7506,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.email-7-error" aria-invalid="false" autocomplete="email" class="sc-15kbb6z-0 cjtvdg" id="input-candidate.email-7" maxlength="255" name="candidate.email" placeholder="your email address" required="" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>email address*</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -4819,6 +7531,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.phone-8-error" aria-invalid="false" autocomplete="tel" class="sc-15kbb6z-0 sc-1hkfaog-0 ddihwb phoneinputinput" id="input-candidate.phone-8" name="candidate.phone" placeholder="your phone number" required="" type="tel" value="+49"/&gt;</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>phone number*</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -4834,6 +7556,16 @@
           <t>picture</t>
         </is>
       </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>&lt;input accept="image/png, image/jpeg" aria-describedby="input-candidate.photo-9-error input-candidate.photo-10" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.photo-11" autocomplete="off" data-cy="candidate.photo" id="input-candidate.photo-9" name="candidate.photo" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -4849,6 +7581,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/msword, application/vnd.openxmlformats-officedocument.wordprocessingml.document, application/pdf, application/vnd.oasis.opendocument.text, application/rtf, text/plain, image/png, image/jpeg" aria-describedby="input-candidate.coverletterfile-12-error input-candidate.coverletterfile-13" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.coverletterfile-14" autocomplete="off" data-cy="candidate.coverletterfile" id="input-candidate.coverletterfile-12" name="candidate.coverletterfile" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>upload a fileaccepted files: png, jpg and jpeg up to 20mb.cover letterupload your cover letter</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -4864,6 +7606,16 @@
           <t>city</t>
         </is>
       </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-describedby="input-candidate.openquestionanswers.4579192.content-17-error undefined" aria-invalid="false" autocomplete="on" class="sc-1bxfyf3-0 icyojw" data-cy="textareainputfield" id="input-candidate.openquestionanswers.4579192.content-17" name="candidate.openquestionanswers.4579192.content" required="" rows="6"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>upload a fileaccepted files: pdf, doc, docx, jpeg and png up to 50mb.questionsplease fill in additional questionswhere are you based in germany?*</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -4879,6 +7631,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-describedby="input-candidate.openquestionanswers.4579193.content-18-error undefined" aria-invalid="false" autocomplete="on" class="sc-1bxfyf3-0 icyojw" data-cy="textareainputfield" id="input-candidate.openquestionanswers.4579193.content-18" name="candidate.openquestionanswers.4579193.content" rows="6"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>what are your salary expectations?</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -4894,6 +7656,16 @@
           <t>visa</t>
         </is>
       </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-describedby="input-candidate.openquestionanswers.4579194.content-19-error undefined" aria-invalid="false" autocomplete="on" class="sc-1bxfyf3-0 icyojw" data-cy="textareainputfield" id="input-candidate.openquestionanswers.4579194.content-19" name="candidate.openquestionanswers.4579194.content" required="" rows="6"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>are you eligible to work in germany?*</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -4909,6 +7681,16 @@
           <t>German language level</t>
         </is>
       </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-describedby="input-candidate.openquestionanswers.4579195.content-20-error undefined" aria-invalid="false" autocomplete="on" class="sc-1bxfyf3-0 icyojw" data-cy="textareainputfield" id="input-candidate.openquestionanswers.4579195.content-20" name="candidate.openquestionanswers.4579195.content" required="" rows="6"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>what level is your german language proficiency level?*</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -4924,6 +7706,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>&lt;button aria-busy="false" aria-live="polite" class="sc-s03za1-0 gzsikd sc-csisgn-0 cwtvvq" type="submit"&gt;send&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>*send</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -4931,7 +7723,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>input id="suggestsearch" name="visiblesearchterm" placeholder="your search term" class="form-control input-border ui-autocomplete-input active" type="text" value="" autocomplete="off"&gt;</t>
+          <t>&lt;input id="suggestsearch" name="visiblesearchterm" placeholder="your search term" class="form-control input-border ui-autocomplete-input active" type="text" value="" autocomplete="off"&gt;</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -4939,6 +7731,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control input-border ui-autocomplete-input active" id="suggestsearch" name="visiblesearchterm" placeholder="your search term" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -4954,6 +7752,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1106504" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>you found us via: *</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -4969,6 +7777,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_2487778" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>gender *please select...malefemalediverseundeterminedtell us in a few sentences why you want to become a part of off: *</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -4984,6 +7802,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_2565946" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Which of your skills make you the ideal candidate for the position? *</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -4999,6 +7827,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.name-8-error" aria-invalid="false" autocomplete="name" class="sc-15kbb6z-0 jceczs" id="input-candidate.name-8" maxlength="255" name="candidate.name" placeholder="full name" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>upload a fileaccepted files: pdf, doc, docx, jpeg and png up to 50mb.my informationfill out the information belowfull name*</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -5014,6 +7852,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.email-9-error" aria-invalid="false" autocomplete="email" class="sc-15kbb6z-0 jceczs" id="input-candidate.email-9" maxlength="255" name="candidate.email" placeholder="your email address" required="" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>email address*</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -5029,6 +7877,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.phone-10-error" aria-invalid="false" autocomplete="tel" class="sc-15kbb6z-0 sc-1hkfaog-0 coutgl phoneinputinput" id="input-candidate.phone-10" name="candidate.phone" placeholder="your phone number" required="" type="tel" value="+49"/&gt;</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>phone number*</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -5044,6 +7902,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-describedby="input-candidate.openquestionanswers.4526483.content-19-error undefined" aria-invalid="false" autocomplete="on" class="sc-1bxfyf3-0 djxxdk" data-cy="textareainputfield" id="input-candidate.openquestionanswers.4526483.content-19" name="candidate.openquestionanswers.4526483.content" required="" rows="6"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>upload a fileaccepted files: pdf, doc, docx, jpeg and png up to 50mb.questionsplease fill in additional questions🚀 what motivates you to become a part of the #instacrew?*</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -5059,6 +7927,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-describedby="input-candidate.openquestionanswers.4526484.content-20-error undefined" aria-invalid="false" autocomplete="on" class="sc-1bxfyf3-0 djxxdk" data-cy="textareainputfield" id="input-candidate.openquestionanswers.4526484.content-20" name="candidate.openquestionanswers.4526484.content" required="" rows="6"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>❓ what is important to you about your job and workplace?*</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -5074,6 +7952,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-describedby="input-candidate.openquestionanswers.4526485.content-21-error undefined" aria-invalid="false" autocomplete="on" class="sc-1bxfyf3-0 djxxdk" data-cy="textareainputfield" id="input-candidate.openquestionanswers.4526485.content-21" name="candidate.openquestionanswers.4526485.content" required="" rows="6"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>💪 what skills and talents do you bring on board?*</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -5089,6 +7977,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-0" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="agentur für arbeit"/&gt;</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>👋🏻how did you find out about instagrid?*</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -5104,6 +8002,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-4" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="glassdoor or kununu"/&gt;</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>fair</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -5119,6 +8027,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-5" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="goodjobs"/&gt;</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>glassdoor or kununu</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -5134,6 +8052,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-6" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="friends or family"/&gt;</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>goodjobs</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -5149,6 +8077,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-7" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="instagram or facebook"/&gt;</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>friends or family</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -5164,6 +8102,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-8" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="linkedin or xing"/&gt;</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>instagram or facebook</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -5179,6 +8127,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-9" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="workwise "/&gt;</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>linkedin or xing</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -5194,6 +8152,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526486.multicontent-22-error " aria-invalid="false" class="sc-qci8q2-2 bcjzun" id="input-candidate.openquestionanswers.4526486.multicontent-22-10" name="candidate.openquestionanswers.4526486.multicontent" required="" type="checkbox" value="other"/&gt;</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>workwise</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -5209,6 +8177,16 @@
           <t>recommender</t>
         </is>
       </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="input-candidate.openquestionanswers.4526487.file-23-error input-candidate.openquestionanswers.4526487.file-24" aria-hidden="true" aria-invalid="false" aria-labelledby="input-candidate.openquestionanswers.4526487.file-25" autocomplete="off" data-cy="fileinputfield" id="input-candidate.openquestionanswers.4526487.file-23" name="candidate.openquestionanswers.4526487.file" style="width:100%;overflow:hidden;position:absolute;top:0px;left:0px;opacity:0;height:100%;cursor:pointer" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>otherplease upload your relevant references:</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -5224,6 +8202,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>&lt;input aria-invalid="false" aria-labelledby="input-candidate.agreements.0.consent-26-0" class="sc-17ac6n8-0 sodwz" name="candidate.agreements.0.consent" required="" type="checkbox" value="false"/&gt;</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>upload a filelegal agreements</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -5239,6 +8227,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>&lt;button aria-busy="false" aria-live="polite" class="sc-s03za1-0 clnrgf sc-csisgn-0 cwtvvq" type="submit"&gt;send&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Information on data protection about our processing of applicant data in accordance with articles 13, 14 and 21 of the general data protection regulation (GDPR):I consent that the applicant data that I have sent to instagrid gmbh (hermann-hagenmeyer str. 1 / 71636 ludwigsburg) as part of an application process may be processed and stored for the next 180 days. this consent relates to all of the personal data contained in my application documents, which can be obtained, for example, from the following documents and surveys:application letter, curriculum vitae, profile, academic records, questionnaires, interviewsnote: please check instagrid gmbh's privacy policy for more information about the processing of your personal data and when your personal data will be deleted if you do not wish to give your consent to its storage.*send</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -5254,6 +8252,16 @@
           <t>zip</t>
         </is>
       </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1078366" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>zip code</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -5269,6 +8277,16 @@
           <t>house number</t>
         </is>
       </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1078365" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>street / house number</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -5284,6 +8302,16 @@
           <t>username</t>
         </is>
       </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="login_input_username" id="input_username" maxlength="50" name="username" size="20" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>username:</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -5299,6 +8327,16 @@
           <t>password</t>
         </is>
       </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="login_input_password" id="input_password" maxlength="50" name="password" size="20" type="password"/&gt;</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>password:</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -5314,6 +8352,16 @@
           <t>login</t>
         </is>
       </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>&lt;button class="button" name="login" type="submit" value=" login "&gt;login&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -5329,6 +8377,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control historical" data-autocomplete-enabled="true" data-autocomplete-url="/jobs/search_preview?block_id=6a38afc7bc1d0545e75a71f4a14146f1&amp;amp;page_id=5510ed89a0e843fcc38e" id="search_control_query_1_0" maxlength="100" name="query" placeholder="search by job title , location, department, category, etc." type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>earch by job title, location, department, category, etc.</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -5344,6 +8402,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-primary" id="search_control_button_1_0" name="button" type="submit"&gt;search&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>search</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -5359,6 +8427,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-success near-me-btn" data-action="blocks--near-me#tracklocation" data-blocks--near-me-trackable-value="false" data-controller="blocks--near-me" id="near_me_button_1_0" name="button" type="button"&gt;jobs near me&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>jobs near me</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -5366,7 +8444,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>input type="text" autocomplete="off" id="search_typeahead" aria-haspopup="listbox" name="base_query" class="form-control tt-input" dir="auto" placeholder="search for jobs by title or keyword" aria-labelledby="search_typeahead-label" role="combobox" value="" spellcheck="false" style="position: relative; vertical-align: top;"&gt;</t>
+          <t>&lt;input type="text" autocomplete="off" id="search_typeahead" aria-haspopup="listbox" name="base_query" class="form-control tt-input" dir="auto" placeholder="search for jobs by title or keyword" aria-labelledby="search_typeahead-label" role="combobox" value="" spellcheck="false" style="position: relative; vertical-align: top;"&gt;</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5374,6 +8452,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>&lt;input aria-haspopup="listbox" aria-labelledby="search_typeahead-label" autocomplete="off" class="form-control tt-input" dir="auto" id="search_typeahead" name="base_query" placeholder="search for jobs by title or keyword" role="combobox" spellcheck="false" style="position: relative; vertical-align: top;" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -5389,6 +8473,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>&lt;input aria-haspopup="listbox" aria-labelledby="location-typeahead-label" autocomplete="off" class="location-search-input form-control tt-input" data-value="" dir="auto" id="location-typeahead" name="loc_query" placeholder="location" role="combobox" spellcheck="false" style="position: relative; vertical-align: top;" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -5404,6 +8494,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>&lt;input class="what border-black-500 bg-white rounded-lg w-full leading-10 pl-10 pr-3 placeholder-adzuna-green-200 text-adzuna-gray-900 focus:outline-none" id="what" name="q" placeholder="job, company, industry" spellcheck="false" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>as?</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -5419,6 +8519,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="where bg-white rounded-lg w-full leading-10 pl-8 pr-3 placeholder-adzuna-green-200 text-adzuna-gray-900 focus:outline-none" data-loc_id="87159" id="where" name="w" placeholder="city, state or zip code" spellcheck="false" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>where?</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -5434,6 +8544,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>&lt;a class="advanced_search_link float-right md:inline-block text-white leading-10 underline hover:no-underline ml-4 lg:ml-auto lg:flex-shrink-0" href="https://www.adzuna.de/advanced-search" rel="nofollow"&gt;advanced search&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>advanced search</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -5449,6 +8569,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>&lt;input aria-activedescendant="" aria-autocomplete="list" aria-expanded="false" aria-haspopup="listbox" aria-labelledby="147-label" aria-owns="147-live-search-results" autocomplete="off" class="textfield wizardfieldinputcontainer wizardfieldinput ui-autocomplete-input" dir="auto" id="147" name="search" placeholder="" tabindex="0" type="text" value="r-35441-2024"/&gt;</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>earch for open positionskeywords</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -5464,6 +8594,16 @@
           <t>country</t>
         </is>
       </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>&lt;select aria-hidden="true" class="checkboxlistformfield autocompletefield autocompleteselectfieldchildhtmlelement select2-hidden-accessible" data-select2-id="198" id="198" multiple="" name="198[]" tabindex="-1"&gt;&lt;/select&gt;</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -5479,6 +8619,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="list" aria-labelledby="198-label" autocapitalize="none" autocomplete="off" autocorrect="off" class="select2-search__field" id="198-search__field" placeholder="select an option" role="searchbox" spellcheck="false" style="width: 94.41px;" tabindex="0" type="search"/&gt;</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -5494,6 +8640,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>&lt;input aria-autocomplete="list" aria-labelledby="202-label" autocapitalize="none" autocomplete="off" autocorrect="off" class="select2-search__field" id="202-search__field" placeholder="select an option" role="searchbox" spellcheck="false" style="width: 127.516px;" tabindex="0" type="search"/&gt;</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -5509,6 +8661,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>&lt;button class="submitbutton" data-buttonid="10" formnovalidate="" id="182-submit" name="action" tabindex="0" type="submit" value="search"&gt;search jobs&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>search jobs</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -5524,6 +8686,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>&lt;input aria-activedescendant="" aria-autocomplete="list" aria-expanded="false" aria-haspopup="listbox" aria-labelledby="147-label" aria-owns="147-live-search-results" autocomplete="off" class="textfield wizardfieldinputcontainer wizardfieldinput ui-autocomplete-input" dir="auto" id="147" name="search" placeholder="" tabindex="0" type="text" value="r-34077-2024"/&gt;</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>earch for open positionskeywords</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -5539,6 +8711,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>&lt;input aria-activedescendant="" aria-autocomplete="list" aria-expanded="false" aria-haspopup="listbox" aria-labelledby="147-label" aria-owns="147-live-search-results" autocomplete="off" class="textfield wizardfieldinputcontainer wizardfieldinput ui-autocomplete-input" dir="auto" id="147" name="search" placeholder="" tabindex="0" type="text" value="r-35891-2024"/&gt;</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>earch for open positionskeywords</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -5554,6 +8736,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>&lt;input aria-activedescendant="" aria-autocomplete="list" aria-expanded="false" aria-haspopup="listbox" aria-labelledby="147-label" aria-owns="147-live-search-results" autocomplete="off" class="textfield wizardfieldinputcontainer wizardfieldinput ui-autocomplete-input" dir="auto" id="147" name="search" placeholder="" tabindex="0" type="text" value="r-35438-2024"/&gt;</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>earch for open positionskeywords</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -5569,6 +8761,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>&lt;input aria-activedescendant="" aria-autocomplete="list" aria-expanded="false" aria-haspopup="listbox" aria-labelledby="147-label" aria-owns="147-live-search-results" autocomplete="off" class="textfield wizardfieldinputcontainer wizardfieldinput ui-autocomplete-input" dir="auto" id="147" name="search" placeholder="" tabindex="0" type="text" value="r-36107-2024"/&gt;</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>earch for open positionskeywords</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -5584,6 +8786,12 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-linkedin-profile" id="job_application_answers_attributes_1_text_value" maxlength="255" name="job_application[answers_attributes][1][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -5599,6 +8807,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-how-did-you-hear-about-this-role" id="job_application_answers_attributes_2_text_value" maxlength="255" name="job_application[answers_attributes][2][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -5614,6 +8832,12 @@
           <t>company</t>
         </is>
       </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-if-yes-what-brand-are-you-affiliated-with-" id="job_application_answers_attributes_4_text_value" maxlength="255" name="job_application[answers_attributes][4][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -5629,6 +8853,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-what-are-your-salary-expectations" id="job_application_answers_attributes_5_text_value" maxlength="255" name="job_application[answers_attributes][5][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -5644,6 +8878,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-what-is-your-current-notice-period" id="job_application_answers_attributes_6_text_value" maxlength="255" name="job_application[answers_attributes][6][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -5659,6 +8903,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://landor.com/en/privacy-policy/" target="_blank"&gt;privacy notice&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>*privacy notice</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -5674,6 +8928,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>&lt;input aria-activedescendant="" aria-autocomplete="list" aria-expanded="false" aria-haspopup="listbox" aria-labelledby="147-label" aria-owns="147-live-search-results" autocomplete="off" class="textfield wizardfieldinputcontainer wizardfieldinput ui-autocomplete-input" dir="auto" id="147" name="search" placeholder="" tabindex="0" type="text" value="r-34412-2024"/&gt;</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>earch for open positionskeywords</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -5689,6 +8953,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>&lt;input data-qa="phone-input" name="phone" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>✱</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -5704,6 +8978,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="card-field-input" name="cards[3d23bbae-bb68-48a2-bfc8-6167b01543b6][field0]" required="required"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>availability✱</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -5719,6 +9003,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>&lt;input class="application-file-input" data-qa="application-file-upload" name="cards[b3a17e6f-959d-4d08-a016-bd6fb4a482f3][field0]" required="required" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>cover letter✱upload file</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -5734,6 +9028,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="card-field-input" name="cards[f568193c-0c1f-4dec-a350-744b2f7f0689][field0]" required="required"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>why acast?✱</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -5741,7 +9045,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>input type="email" value.bind="subscribesimilarjobsmodel.email" disabled.bind="isdisabled" name="notifiedemail" id="notifiedemail" placeholder="your@email.com" key-placeholder="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-placeholdertxt" autocomplete="email" data-ph-at-id="email-input" aria-label="please enter your email address" key-aria-label="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-enteremailaddressarialbl" aria-required="true" data-ph-id="ph-default-1698843510998-ph-subscribe-similarjobs-v1wqdp8w-ftaf9z" class="au-target form-control ph-a11y-subscribe-box fs-block" au-target-id="331" aria-describedby="ph-a11y-subscribe-email-error-two"&gt;</t>
+          <t>&lt;input type="email" value.bind="subscribesimilarjobsmodel.email" disabled.bind="isdisabled" name="notifiedemail" id="notifiedemail" placeholder="your@email.com" key-placeholder="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-placeholdertxt" autocomplete="email" data-ph-at-id="email-input" aria-label="please enter your email address" key-aria-label="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-enteremailaddressarialbl" aria-required="true" data-ph-id="ph-default-1698843510998-ph-subscribe-similarjobs-v1wqdp8w-ftaf9z" class="au-target form-control ph-a11y-subscribe-box fs-block" au-target-id="331" aria-describedby="ph-a11y-subscribe-email-error-two"&gt;</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -5749,6 +9053,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="ph-a11y-subscribe-email-error-two" aria-label="please enter your email address" aria-required="true" au-target-id="331" autocomplete="email" class="au-target form-control ph-a11y-subscribe-box fs-block" data-ph-at-id="email-input" data-ph-id="ph-default-1698843510998-ph-subscribe-similarjobs-v1wqdp8w-ftaf9z" disabled.bind="isdisabled" id="notifiedemail" key-aria-label="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-enteremailaddressarialbl" key-placeholder="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-placeholdertxt" name="notifiedemail" placeholder="your@email.com" type="email" value.bind="subscribesimilarjobsmodel.email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -5764,6 +9074,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://careers.bcg.com/bcg-recruitment-privacy-policy" target="_blank"&gt;bcg's recruiting privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>bcg's recruiting privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -5779,6 +9099,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>&lt;input aria-checked="false" aria-describedby="consent-error-subscribe" aria-labelledby="checkbox-label-subscribe0" aria-required="true" au-target-id="336" checked.bind="eachconsent.ischecked" class="pii-consent-input au-target" data-ph-id="ph-default-1698843510998-ph-subscribe-similarjobs-v1wqdp8w-8mxmfy" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -5794,6 +9120,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>&lt;input aria-checked="false" aria-describedby="consent-error-subscribe" aria-labelledby="checkbox-label-subscribe1" aria-required="true" au-target-id="336" checked.bind="eachconsent.ischecked" class="pii-consent-input au-target" data-ph-id="ph-default-1698843510998-ph-subscribe-similarjobs-v1wqdp8w-8mxmfy" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>i consent to receive email and/or sms messaging communications from bcg about insights and career opportunities.</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -5811,6 +9147,18 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="submit get notified for similar jobs form" au-target-id="345" class="btn default-button ph-a11y-submit form-control-feedback au-target" click.delegate="subscribe()" data-ph-at-id="subscribe-jobs-link" data-ph-at-job-category-text="people and hr" data-ph-at-job-seqno-text="bcg1us22320brexternalenus" data-ph-id="ph-default-1698843510998-ph-subscribe-similarjobs-v1wqdp8w-qyzidp" data-ph-tevent-attr-trait14="people and hr" data-ph-tevent-attr-trait27="" data-ph-tevent-attr-trait5="bcg1us22320brexternalenus" key-aria-label="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-subscribesimilarjobsbuttonarialabeltextt" key-role="job-people-hr-wqdp8w-ph-subscribe-similarjobs-v1-default-btn-role" ph-tevent="similar_jobs_subscribe" role="button"&gt;
+submit
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>i agree to bcg retaining my personal information for up to five years including any sensitive information i choose to share for future employment opportunities as part of bcg's optional recruiting programs.submit</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -5826,6 +9174,16 @@
           <t>register</t>
         </is>
       </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-next" id="samlsso-next" onclick="window.top.location = '../gateway/saml.aspx?ljobid=571842&amp;amp;ljobsourcetypeid=796&amp;amp;lapplicationsubsourceid=&amp;amp;sreferral=&amp;amp;ljobreferralid=&amp;amp;llogintype=&amp;amp;slanguage=en-us&amp;amp;ssourcepointer=cw';" type="button"&gt;next&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>f you are a current unicef ​​staff member, click the "next" button below to be signed in automaticallynext</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -5842,6 +9200,17 @@
           <t>login</t>
         </is>
       </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>&lt;a href="#" id="currlang"&gt;
+english (us)&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>or alternatively you can login using your applicant credentialsbegin applicationlanguageenglish (us)</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -5857,6 +9226,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" id="semail" maxlength="255" name="semail" size="25" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>email address:</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -5872,6 +9251,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" id="checkagree" name="checkagree" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -5887,6 +9272,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>&lt;a href="viewprivacystatement.asp?sdata=ufutvjmtnyi4%2fv6lsjkuyvdgqhmhmwfv7xrn6ljqdtmrg6o2wqnguvs4ziko2azpwkaxcsxdahxkb1k%2fk9l%2bzrrqvldmvzz23hxx3oc%2f01omfiepwskja%2fzvzzp3blfjswxsq%2bqm50jdgiehbxo6hfjpvcegtjupvn1a%2bdr0bp2efzuisui%3d" target="_blank"&gt;privacy statement (new window)&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>privacy statement (new window)</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -5902,6 +9297,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="ph-a11y-email-job-name-field-error" aria-label="please enter name" au-target-id="55" autocomplete="name" class="form-control ph-a11y-form-control-name fs-block au-target" data-ph-at-id="name-input" data-ph-id="ph-page-element-page4-9gwl0x" id="email-job-name" key-aria-label="job-marketing-strategy-communication-job-ph-email-job-v1-simple-form-57oixp-4louze" key-placeholder="job-marketing-strategy-communication-job-ph-email-job-v1-simple-form-57oixp-fwc3zx" key-title="job-marketing-strategy-communication-job-ph-email-job-v1-simple-form-57oixp-anqf4j" name="email-job-name" placeholder="your name" title="please enter name" type="text" value.bind="emailjobmodel.name"/&gt;</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>our name</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -5917,6 +9322,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="ph-a11y-email-job-email-field-error" aria-label="please enter email address" au-target-id="58" autocomplete="email" class="form-control ph-a11y-form-control-email fs-block au-target" data-ph-at-id="email-input" data-ph-id="ph-page-element-page4-kgkgy8" id="email-job-email" key-aria-label="job-marketing-strategy-communication-job-ph-email-job-v1-simple-form-57oixp-bbmx05" key-placeholder="job-marketing-strategy-communication-job-ph-email-job-v1-simple-form-57oixp-snrk0x" key-title="job-marketing-strategy-communication-job-ph-email-job-v1-simple-form-57oixp-w2mmi6" name="email-job-email" placeholder="recipient email" title="please enter email address" type="text" value.bind="emailjobmodel.email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>recipient email</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -5932,6 +9347,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn primary-button submit-btn ph-a11y-email-submit" data-ph-at-id="send-button" data-ph-id="ph-page-element-page4-ghiqkn" type="submit"&gt; submit &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>submit</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -5947,6 +9372,16 @@
           <t>question</t>
         </is>
       </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-required="true" autocomplete="custom-question-what-topics-in-the-field-of-hr-are-you-passionate-about-" id="job_application_answers_attributes_0_text_value" name="job_application[answers_attributes][0][text_value]"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>(file types: pdf, doc, docx, txt, rtf)*</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -5962,6 +9397,16 @@
           <t>willing to relocate</t>
         </is>
       </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-are-you-willing-and-able-to-come-to-our-berlin-office-" id="job_application_answers_attributes_2_text_value" maxlength="255" name="job_application[answers_attributes][2][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -5977,6 +9422,16 @@
           <t>universityenrollment</t>
         </is>
       </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-are-you-enrolled-for-at-least-12-more-months-in-a-german-university" id="job_application_answers_attributes_3_text_value" maxlength="255" name="job_application[answers_attributes][3][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -5992,6 +9447,16 @@
           <t>German language level</t>
         </is>
       </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-what-is-your-level-of-german-" id="job_application_answers_attributes_4_text_value" maxlength="255" name="job_application[answers_attributes][4][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -6007,6 +9472,12 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-whats-your-linkedin-or-xing-profile" id="job_application_answers_attributes_5_text_value" maxlength="255" name="job_application[answers_attributes][5][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -6022,6 +9493,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="false" autocomplete="custom-question-what-is-your-github-id-if-you-have-one" id="job_application_answers_attributes_6_text_value" maxlength="255" name="job_application[answers_attributes][6][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>we might need your github id in later stages of our hiring process.</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -6037,6 +9518,16 @@
           <t>find us</t>
         </is>
       </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-how-did-you-find-out-about-this-job" id="job_application_answers_attributes_7_text_value" maxlength="255" name="job_application[answers_attributes][7][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -6052,6 +9543,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" id="job_application_answers_attributes_8_answer_selected_options_attributes_0_question_option_id" name="job_application[answers_attributes][8][answer_selected_options_attributes][0][question_option_id]" set="5728947101" type="checkbox" value="25237757101"/&gt;</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -6067,6 +9564,16 @@
           <t>company</t>
         </is>
       </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_787" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>current company</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -6082,6 +9589,16 @@
           <t>company</t>
         </is>
       </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_759" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>current position</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -6097,6 +9614,16 @@
           <t>available from</t>
         </is>
       </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_128471" placeholder="" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>earliest start date *</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -6112,6 +9639,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-required="true" autocomplete="custom-question-what-topics-in-the-field-of-communications-are-you-passionate-about-" id="job_application_answers_attributes_0_text_value" name="job_application[answers_attributes][0][text_value]"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>(file types: pdf, doc, docx, txt, rtf)*</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -6127,6 +9664,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" id="job_application_answers_attributes_8_answer_selected_options_attributes_0_question_option_id" name="job_application[answers_attributes][8][answer_selected_options_attributes][0][question_option_id]" set="5725853101" type="checkbox" value="25205544101"/&gt;</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -6142,6 +9685,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control" data-placeholder="" name="candidateinformation.firstname" required="" title="first name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>. first name *</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -6157,6 +9710,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control" data-placeholder="" name="candidateinformation.lastname" required="" title="last name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2. last name *</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -6172,6 +9735,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control" data-placeholder="" name="candidateinformation.email" pattern="[a-za-z0-9._%+-]+@[a-za-z0-9.-]+\.[a-za-z]{2,}$" required="" title="email" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>3. email *</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -6187,6 +9760,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="form-control" data-placeholder="" name="candidateinformation.phonenumber" required="" title="phone" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4. phone *</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -6202,6 +9785,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>&lt;input name="candidateinformation.resume.file" required="" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>5. resume *. we accept .pdf, .doc, and .docx formats.</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -6217,6 +9810,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>&lt;a class="underline" href="https://ennismore.com/privacy-policy/" target="_blank"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>* these questions are a mustprivacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -6232,6 +9835,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>&lt;a class="underline" href="https://ennismore.com/california-employee-privacy-policy/" target="_blank"&gt;click here&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>click here</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -6247,6 +9860,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="terms_and_conditions" required="" title="by clicking submit, i consent to the collection of my data in accordance to ennismore’s privacy policy *" type="checkbox"/&gt;</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -6262,6 +9881,12 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>&lt;input class="" type="submit" value="apply"/&gt;</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -6269,7 +9894,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>a href="https://jobs.unops.org/pages/account/login.aspx?returnurl=%2fpages%2fviewvacancy%2fvadetails.aspx%3fid%3d28159" class="dropdown-toggle header-icon" role="button" title="log in to unops jobs" aria-haspopup="true" aria-expanded="false" id="user-profile-icon"&gt;&lt;/a&gt;</t>
+          <t>&lt;a href="https://jobs.unops.org/pages/account/login.aspx?returnurl=%2fpages%2fviewvacancy%2fvadetails.aspx%3fid%3d28159" class="dropdown-toggle header-icon" role="button" title="log in to unops jobs" aria-haspopup="true" aria-expanded="false" id="user-profile-icon"&gt;&lt;/a&gt;</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6277,6 +9902,12 @@
           <t>login</t>
         </is>
       </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>&lt;a aria-expanded="false" aria-haspopup="true" class="dropdown-toggle header-icon" href="https://jobs.unops.org/pages/account/login.aspx?returnurl=%2fpages%2fviewvacancy%2fvadetails.aspx%3fid%3d28159" id="user-profile-icon" role="button" title="log in to unops jobs"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -6294,6 +9925,18 @@
           <t>next</t>
         </is>
       </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>&lt;a class="lnkapplydummy btn va-details-btn va-button"&gt; 
+apply
+&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -6309,6 +9952,16 @@
           <t>city</t>
         </is>
       </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="at-commutetime-frominput job-ad-display-n8c99w" data-genesis-element="form_input" id="stepstone-form-element-32" name="from" placeholder="enter start address" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>on:</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -6324,6 +9977,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>&lt;input aria-invalid="false" aria-required="true" autocomplete="email" class="css-ilrio6" data-automation-id="email" id="input-4" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>mail address</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -6339,6 +10002,16 @@
           <t>password</t>
         </is>
       </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="current-password" class="css-ilrio6" data-automation-id="password" id="input-5" type="password" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -6354,6 +10027,16 @@
           <t>register</t>
         </is>
       </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>&lt;button aria-hidden="true" class="css-145m6xi" data-automation-id="signinsubmitbutton" font-size="14" height="40" tabindex="-2" type="submit"&gt;sign in&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>sign in</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -6361,7 +10044,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>input type="text" class="keywordsearch-q columnized-search" name="q" placeholder="search for keyword" maxlength="50" aria-label="search for keyword"&gt;</t>
+          <t>&lt;input type="text" class="keywordsearch-q columnized-search" name="q" placeholder="search for keyword" maxlength="50" aria-label="search for keyword"&gt;</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -6369,6 +10052,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>&lt;input aria-label="search for keyword" class="keywordsearch-q columnized-search" maxlength="50" name="q" placeholder="search for keyword" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -6384,6 +10073,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>&lt;input aria-label="search by location" class="keywordsearch-locationsearch columnized-search" maxlength="50" name="locationsearch" placeholder="search by location" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -6399,6 +10094,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>&lt;a aria-controls="moreoptionsdiv" aria-expanded="false" class="search-option-link btn-link" data-lessoptions="show fewer options" data-moreoptions="show more options" data-target=".optionsdiv" data-toggle="collapse" href="javascript:void(0)" id="options-search" rel="advance" role="button"&gt;show more options&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>show more options</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -6414,6 +10119,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>&lt;input class="btn keywordsearch-button" type="submit" value="search for jobs"/&gt;</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -6429,6 +10140,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>&lt;a class="search-clear-button btn-link" href="" role="button"&gt;delete&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -6444,6 +10165,16 @@
           <t>salary</t>
         </is>
       </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>&lt;input aria-required="true" autocomplete="custom-question-salary-expectations-yearly-gross-in-eur" id="job_application_answers_attributes_1_text_value" maxlength="255" name="job_application[answers_attributes][1][text_value]" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -6459,6 +10190,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,.pdf,application/msword,.doc,application/vnd.openxmlformats-officedocument.wordprocessingml.document,.docx" aria-invalid="false" hidden="" name="cv-file" style="display:none" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>CV and attachmentsPlease select an option and upload your CV:*</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -6474,6 +10215,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,.pdf,image/*,.jpg,.jpeg,.gif,.png,.bmp,.tif,.tiff,application/msword,.doc,application/vnd.ms-powerpoint,.ppt,.pps,application/vnd.openxmlformats-officedocument.wordprocessingml.document,.docx,application/vnd.openxmlformats-officedocument.presentationml.presentation,.pptx,.ppsx,application/vnd.oasis.opendocument.text,.odt,application/rtf,.rtf,application/vnd.oasis.opendocument.presentation,.odp,text/plain,.txt" aria-invalid="false" hidden="" multiple="" name="attachments" style="display:none" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>dokumentxingsoftgarden</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -6489,6 +10240,16 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-invalid="false" class="textarea__area-sc-f0c3ad6b-0 erhvtx" name="applicationdata.coverlettertext" placeholder="cover letter (optional)" style="height: 53.6px !important;" type="text"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>further attachments (e.g. references or certificates)</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -6496,7 +10257,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>src="javascript:;" class="cw-form-clear inactive" lt-prop-title="clear fields in this section" lt-prop-tooltip-config="{&amp;quot;position&amp;quot; : &amp;quot;top&amp;quot;}" click="rec-form -component =&gt; clear(event,formsection)"&gt;clear&lt;/a&gt;</t>
+          <t>&lt;src="javascript:;" class="cw-form-clear inactive" lt-prop-title="clear fields in this section" lt-prop-tooltip-config="{&amp;quot;position&amp;quot; : &amp;quot;top&amp;quot;}" click="rec-form -component =&gt; clear(event,formsection)"&gt;clear&lt;/a&gt;</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -6504,6 +10265,12 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>&lt;src="javascript:;" class="cw-form-clear inactive" click="rec-form -component =&amp;gt; clear(event,formsection)" lt-prop-title="clear fields in this section" lt-prop-tooltip-config='{"position" : "top"}'&gt;clear&lt;/src="javascript:;"&gt;</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -6519,6 +10286,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>&lt;a aria-expanded="false" class="cw-form-clear" click="rec-form- component =&amp;gt; clear(event,formsection)" href="javascript:;" lt-prop-title="clear fields in this section" lt-prop-tooltip-config='{"position" : "top"}'&gt;clear&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -6534,6 +10311,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" blur="lyte-input =&amp;gt; blurthrow" class="f15" data-tabindex="0" focus="lyte-input =&amp;gt; focusclass(event)" id="" input="lyte-input =&amp;gt; input" maxlength="5" name="" pattern=".+" placeholder="" style="" tabindex="" title="" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -6549,6 +10336,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>&lt;a class="cw-form-clear inactive" click="rec -form-component =&amp;gt; clear(event,formsection)" href="javascript:;" lt-prop-title="remove all tabular data of this section" lt-prop-tooltip-config='{"position" : "top"}'&gt;clear&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -6564,6 +10361,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,application/rtf,application/x-zip,application/msword,application/vnd .ms-word,application/vnd.oasis.opendocument.text,text/css,text/rtf,text/html,text/sgml,text/plain,text/richtext,text/enriched,text/tab-separated-values ,application/vnd.openxmlformats-officedocument.wordprocessingml.document,application/vnd.openxmlformats-officedocument.s preadsheetml.sheet,application/vnd.ms-excel,application/zip,audio/*,video/*,image/x-icon,image/svg+xml,image/png,image/ief,image/rgb,image/ jpeg,image/tiff,image/x-rgb,image/g3fax,image/x-xpixmap,image/gif,image/x-xbitmap,pdf,rtf,zipx,zip,doc,dot,docx,dotx,odt, css,html,htm,sgml,txt,xls,xlt,xla,xlsx,xltx,ppt,pot,pptx,pot,potx,mdb,jpeg,jpg,tiff,fax,png,gif,ico,svg" change="lyte-fileupload =&amp;gt; change(event,this)" class="fileuploadinput" id="" name="rec-form_29684000000011515_file" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>attachment information*</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -6579,6 +10386,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>&lt;a click="rec-captcha-component =&amp;gt; reloadcaptcha()" href="javascript:;" lt-prop-title="load new captcha" lt-prop-tooltip-config='{"position" : "top"}'&gt;reload&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>reload</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -6594,6 +10411,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>&lt;a aria-expanded="false" class="cw-form-clear inactive" click="rec-form -component =&amp;gt; clear(event,formsection)" href="javascript:;" lt-prop-title="clear fields in this section" lt-prop-tooltip-config='{"position" : "top"}'&gt;clear&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>browseclear</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -6609,6 +10436,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3934416924-418571329-text-error" class="artdeco-text-input--input" id="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3934416924-418571329-text" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>last name</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -6624,6 +10461,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3934416924-418571321-phonenumber-nationalnumber-error" class="artdeco-text-input--input" id="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3934416924-418571321-phonenumber-nationalnumber" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>phone country codephone country coderequiredselect an optiongermany (+49)afghanistan (+93)aland islands (+358)albania (+355)algeria (+213)american samoa (+1)andorra (+376)angola (+244)anguilla (+1)antarctica (+0)antigua and barbuda (+1)argentina (+54)armenia (+374)aruba (+297)australia (+61)austria (+43)azerbaijan (+994)bahamas (+1)bahrain (+973)bangladesh (+880)barbados (+1)belarus (+375)belgium (+32)belize (+501)benin (+229)bermuda (+1)bhutan (+975)bolivia (+591)bosnia and herzegovina (+387)botswana (+267)bouvet island (+0)brazil (+55)British Indian Ocean Territory (+246)Brunei Darussalam (+673)Bulgaria (+359)Burkina Faso (+226)Burundi (+257)Cambodia (+855)Cameroon (+237)Canada (+1)Cape Verde (+238)Caribbean Nations (+0)Cayman Islands (+1)Central African Republic (+236)Chad (+235)Chile (+56)China (+86)Christmas Island (+61)Cocos (Keeling) Islands (+61)Colombia (+57)Comoros (+269)Congo (+242)Cook Islands (+682)Costa Rica (+506)Cote d’Ivoire (Ivory Coast) (+225)Croatia (+385)Cuba (+53)Cyprus (+357)Czech Republic (+420)Democratic Republic of the Congo (+243)Denmark (+45)djibouti (+253)dominica (+1)dominican republic (+1)ecuador (+593)egypt (+20)el salvador (+503)equatorial guinea (+240)eritrea (+291)estonia (+372)ethiopia (+251)falkland islands (malvinas) (+500)faroe islands (+298)federated states of micronesia (+691)fiji (+679)finland (+358)france (+33)french guiana (+594)french polynesia (+689)french southern territories (+0)gabon (+241)gambia (+220)georgia (+995)ghana (+233)gibraltar (+350)greece (+30)greenland (+299)grenada (+1)guadeloupe (+590)guam (+1)guatemala (+502)guernsey (+44)guinea (+224)guinea-bissau (+245)guyana (+592)haiti (+509)heard island and mcdonald islands (+0)honduras (+504)hong kong (+852)hungary (+36)iceland (+354)india (+91)indonesia (+62)iran (+98)iraq (+964)ireland (+353)isle of man (+44)israel (+972)italy (+39)jamaica (+1)japan (+81)jersey (+44)jordan (+962)kazakhstan (+7)kenya (+254)kiribati (+686)korea (+82)korea (north) (+850)kosovo (+383)kuwait (+965)kyrgyzstan (+996)laos (+856)latvia (+371)lebanon (+961)lesotho (+266)liberia (+231)libya (+218)liechtenstein (+423)lithuania (+370)luxembourg (+352)macao (+853)macedonia (+389)madagascar (+261)malawi (+265)malaysia (+60)maldives (+960)mali (+223)malta (+356)marshall islands (+692)martinique (+596)mauritania (+222)mauritius (+230)mayotte (+262)mexico (+52)moldova (+373)monaco (+377)mongolia (+976)montenegro (+382)montserrat (+1)morocco (+212)mozambique (+258)myanmar (+95)namibia (+264)nauru (+674)nepal (+977)netherlands (+31)netherlands antilles (+0)new caledonia (+687)new zealand (+64)nicaragua (+505)niger (+227)nigeria (+234)niue (+683)norfolk island (+672)northern mariana islands (+1)norway (+47)pakistan (+92)palau (+680)palestinian territory (+970)panama (+507)papua new guinea (+675)paraguay (+595)peru (+51)philippines (+63)pitcairn (+0)poland (+48)portugal (+351)puerto rico (+1)qatar (+974)reunion (+262)romania (+40)russian federation (+7)rwanda (+250)s. georgia and s. sandwich islands (+0)saint helena (+290)saint kitts and nevis (+1)saint lucia (+1)saint pierre and miquelon (+508)saint vincent and the grenadines (+1)samoa (+685)san marino (+378)sao tome and principe (+239)saudi arabia (+966)senegal (+221)serbia (+381)serbia and montenegro (+0)seychelles (+248)sierra leone (+232)singapore (+65)slovak republic (+421)slovenia (+386)solomon islands (+677)somalia (+252)south africa (+27)south sudan (+211)spain (+34)sri lanka (+94)sudan (+249)sultanate of oman (+968)suriname (+597)svalbard and jan mayen (+47)swaziland (+268)sweden (+46)switzerland (+41)syria (+963)taiwan (+886)tajikistan (+992)tanzania (+255)thailand (+66)timor-leste (+670)togo (+228)tokelau (+690)tonga (+676)trinidad and tobago (+1)tunisia (+216)turkey (+90)turkmenistan (+993)turks and caicos islands (+1)tuvalu (+688)uganda (+256)ukraine (+380)united arab emirates (+971)united kingdom (+44)united states (+1)uruguay (+598)uzbekistan (+998)vanuatu (+678)vatican city state (holy see) (+39)venezuela (+58)vietnam (+84)virgin islands (british) (+1)virgin islands (u.s.) (+1)wallis and futuna (+681)western sahara (+212)yemen (+967)zambia (+260)zimbabwe (+263)mobile phone number</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -6639,6 +10486,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3934416924-418571313-text-error" class="artdeco-text-input--input" id="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3934416924-418571313-text" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>email addressemail addressrequiredselect an optionsharghi.majid@gmail.commajid.sharghi97@gmail.comaddress</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -6654,6 +10511,16 @@
           <t>picture</t>
         </is>
       </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>&lt;input accept="image/jpg,image/jpeg,image/gif,image/png" class="hidden" id="jobs-document-upload-file-input-urn:li:fsu_jobapplicationfileuploadformelement:urn:li:jobs_applyformcommon_easyapplyformelement:(3934416924,418571377,document)" name="file" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>photoupload</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -6661,7 +10528,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>input class="form-control search-bar fas" type="search" name="search" placeholder=" search by role, keyword, etc." value="" aria-label="search" style="font-family: arial, font awesome 5 free"&gt;</t>
+          <t>&lt;input class="form-control search-bar fas" type="search" name="search" placeholder=" search by role, keyword, etc." value="" aria-label="search" style="font-family: arial, font awesome 5 free"&gt;</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -6669,6 +10536,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>&lt;input aria-label="search" class="form-control search-bar fas" name="search" placeholder=" search by role, keyword, etc." style="font-family: arial, font awesome 5 free" type="search" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -6684,6 +10557,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" id="field980730" name="980730" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -6699,6 +10578,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" id="field980731" name="980731" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -6714,6 +10603,16 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" id="field980732" name="980732" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -6729,6 +10628,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="form-control" id="field980733" name="980733" placeholder=""&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>cover letter:</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -6744,6 +10653,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>&lt;input name="terms_and_condition" type="checkbox" value="checked"/&gt;</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>choose file</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -6761,6 +10680,18 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>&lt;a href="/espabila/terms-and-conditions" target="_blank"&gt;
+terms and conditions
+&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>terms and conditions</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -6778,6 +10709,18 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>&lt;a href="/espabila/privacy-policy" target="_blank"&gt;
+privacy policy
+&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -6795,6 +10738,18 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn-primary mt-4 btn btn-success btn-lg btn-apply" id="submit-id-submit" name="submit" type="submit"&gt;
+submit your application
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>submit your application</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -6802,7 +10757,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>input data-testid="textinput" id="applylateremail" required="" type="email" placeholder="email" autocomplete="email" name="email" class="sc-bsgiji jskkmm" value=""&gt;</t>
+          <t>&lt;input data-testid="textinput" id="applylateremail" required="" type="email" placeholder="email" autocomplete="email" name="email" class="sc-bsgiji jskkmm" value=""&gt;</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -6810,6 +10765,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" class="sc-bsgiji jskkmm" data-testid="textinput" id="applylateremail" name="email" placeholder="email" required="" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -6825,6 +10786,16 @@
           <t>next</t>
         </is>
       </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>&lt;button class="sc-jotjna hvotpm" data-testid="applylatersubmitbutton" type="submit"&gt;apply later&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>apply later</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -6840,6 +10811,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3925268615-123300298-phonenumber-nationalnumber-error" class="artdeco-text-input--input" id="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon- easyapplyformelement-3925268615-123300298-phonenumber-nationalnumber" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>contact infomajid sharghisoftware engineer | machine learning enthusiast | seeking new opportunitieserlangen, bavaria, germanyemail addressemail addressrequiredselect an optionsharghi.majid@gmail.commajid.sharghi97@gmail.comphone country codephone country coderequiredselect an optiongermany (+49)afghanistan (+93)aland islands (+358)albania (+355)algeria (+213)american samoa (+1)andorra (+376)angola (+244)anguilla (+1)antarctica (+0)antigua and barbuda (+1)argentina (+54)armenia (+374)aruba (+ 297)australia (+61)austria (+43)azerbaijan (+994)bahamas (+1)bahrain (+973)bangladesh (+880)barbados (+1)belarus (+375)belgium (+32)belize (+ 501)benin (+229)bermuda (+1)bhutan (+975)bolivia (+591)bosnia and herzegovina (+387)botswana (+267)bouvet island (+0)brazil (+55)british indian ocean territory (+246) brunei darussalam (+673)bulgaria (+359)burkina faso (+226)burundi (+257)cambodia (+855)cameroon (+237)canada (+1)cape verde (+238)caribbean nations (+0)cayman islands (+1)central african republic (+236)chad (+235)chile (+56)china (+86)christmas island (+61)cocos (keeling) islands (+61)colombia (+57)comoros (+ 269)congo (+242)cook islands (+682)costa rica (+506)cote d'ivoire (ivory coast) (+225)croatia (+385)cuba (+53)cyprus (+357)czech republic (+420)democratic republic of the congo (+243)denmark (+45)djibouti (+253)dominica ( +1)dominican republic (+1)ecuador (+593)egypt (+20)el salvador (+503)equatorial guinea (+240)eritrea (+291)estonia (+372)ethiopia (+251)falkland islands (malvinas ) (+500)faroe islands (+298)federated states of micronesia (+691)fiji (+679)finland (+358)france (+33)french guiana (+594)french polynesia (+689)french southern territories ( +0)gabon (+241)gambia (+220)georgia (+995)ghana (+233)gibraltar (+350)greece (+30)greenland (+299)grenada (+1)guadeloupe (+590)guam (+1)guatemala (+502)guernsey (+44)guinea (+224)guinea -bissau (+245)guyana (+592)haiti (+509)heard island and mcdonald islands (+0)honduras (+504)hong kong (+852)hungary (+36)iceland (+354)india (+91 )indonesia (+62)iran (+98)iraq (+964)ireland (+353)isle of man (+44)israel (+972)italy (+39)jamaica (+1)japan (+81)jersey ( +44)jordan (+962)kazakhstan (+7)kenya (+254)kiribati (+686)korea (+82)korea (north) (+850)kosovo (+383)kuwait (+965)kyrgyzstan (+996)laos (+856)latvia (+371)lebanon (+961)lesotho (+266)liberia (+231)libya (+218)liechtenstein (+423)lithuania (+370)luxembourg (+352)macao (+853)macedonia (+389)madagascar (+261)malawi (+265)malaysia (+60)maldives (+960)mali (+223)malta (+356)marshall islands (+692)martinique (+596)mauritania (+222)mauritius (+230)mayotte (+262)mexico (+52)moldova (+373)monaco (+377)mongolia (+976) montenegro (+382)montserrat (+1)morocco (+212)mozambique (+258)myanmar (+95)namibia (+264)nauru (+674)nepal (+977)netherlands (+31)netherlands antilles (+0)new caledonia (+687 )new zealand (+64)nicaragua (+505)niger (+227)nigeria (+234)niue (+683)norfolk island (+672)northern mariana islands (+1)norway (+47)pakistan (+92) palau (+680)palestinian territory (+970)panama (+507)papua new guinea (+675)paraguay (+595)peru (+51)philippines (+63)pitcairn (+0)poland (+48)portugal ( +351)puerto rico (+1)qatar (+974)reunion (+262)romania (+40)russian federation (+7)rwanda (+250)s. georgia and s. sandwich islands (+0)saint helena (+290)saint kitts and nevis (+1)saint lucia (+1)saint pierre and miquelon (+508)saint vincent and the grenadines (+1)samoa (+ 685)san marino (+378)sao tome and principe (+239)saudi arabia (+966)senegal (+221)serbia (+381)serbia and montenegro (+0)seychelles (+248)sierra leone (+232) Singapore (+65) Slovakia (+421) Slovenia (+386) Solomon Islands (+677) Somalia (+252) South Africa (+27) South Sudan (+211) Spain (+34) Sri Lanka (+94) Sudan (+249)Sultanate of oman (+968)suriname (+597)svalbard and jan mayen (+47)swaziland (+268)sweden (+46)switzerland (+41)syria (+963)taiwan (+886)tajikistan (+992)tanzania ( +255)thailand (+66)timor-leste (+670)togo (+228)tokelau (+690)tonga (+676)trinidad and tobago (+1)tunisia (+216)turkey (+90)turkmenistan (+ 993)turks and caicos islands (+1)tuvalu (+688)uganda (+256)ukraine (+380)united arab emirates (+971)united kingdom (+44)united states (+1)uruguay (+598)uzbekistan (+998)vanuatu (+678)vatican city state (holy see) (+39)venezuela (+58)vietnam (+84)virgin islands (british) (+1)virgin islands (us) (+1)wallis and futuna (+681)western sahara (+212)yemen (+967) zambia (+260)zimbabwe (+263)mobile phone number</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -6847,7 +10828,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>input placeholder="enter email address" class="input_input__e2zkv textinput_input__qjuz_" type="email" name="email" id="email" autofocus="" required="" autocomplete="email" value=""&gt;</t>
+          <t>&lt;input placeholder="enter email address" class="input_input__e2zkv textinput_input__qjuz_" type="email" name="email" id="email" autofocus="" required="" autocomplete="email" value=""&gt;</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -6855,6 +10836,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" autofocus="" class="input_input__e2zkv textinput_input__qjuz_" id="email" name="email" placeholder="enter email address" required="" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -6862,7 +10849,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>input type="email" name="email" placeholder="your e-mail-address" title="your e-mail-address" tabindex="0" id="contact-email-field" ng-model="$ctrl.application.senderemail" ng-pattern="/^(([^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+(\.[^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+)*)|(&amp;quot;.+&amp;quot;))@((\[[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}])|(([a-za-z\-0-9]+\.)+[a-za-z]{2,}))$/" required="" class="ng-pristine ng-untouched ng-empty ng-valid-email ng-invalid ng-invalid-required ng-valid-pattern"&gt;</t>
+          <t>&lt;input type="email" name="email" placeholder="your e-mail-address" title="your e-mail-address" tabindex="0" id="contact-email-field" ng-model="$ctrl.application.senderemail" ng-pattern="/^(([^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+(\.[^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+)*)|(&amp;quot;.+&amp;quot;))@((\[[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}])|(([a-za-z\-0-9]+\.)+[a-za-z]{2,}))$/" required="" class="ng-pristine ng-untouched ng-empty ng-valid-email ng-invalid ng-invalid-required ng-valid-pattern"&gt;</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -6870,6 +10857,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>&lt;input class="ng-pristine ng-untouched ng-empty ng-valid-email ng-invalid ng-invalid-required ng-valid-pattern" id="contact-email-field" name="email" ng-model="$ctrl.application.senderemail" ng-pattern='/^(([^&amp;lt;&amp;gt;()[\]\\.,;:\s@"]+(\.[^&amp;lt;&amp;gt;()[\]\\.,;:\s@"]+)*)|(".+"))@((\[[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}])|(([a-za-z\-0-9]+\.)+[a-za-z]{2,}))$/' placeholder="your e-mail-address" required="" tabindex="0" title="your e-mail-address" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -6885,6 +10878,12 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>&lt;input class="ng-pristine ng-untouched ng-empty ng-invalid ng-invalid-required" id="contact-name-field" name="name" ng-blur="$ctrl.onblursendername()" ng-focus="$ctrl.oldsendername = $ctrl.application.sendername" ng-model="$ctrl.application.sendername" placeholder="your name" required="" tabindex="0" title="your name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -6900,6 +10899,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="ng-pristine ng-untouched ng-not-empty ng-valid ng-valid-required" id="contact-text-field" name="message" ng-change="$ctrl.onchangemessage()" ng-model="$ctrl.application.message" ng-show="$ctrl.state.messagedraftloaded" required="" rows="10" tabindex="0"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -6915,6 +10924,12 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".pdf,.doc,.docx,.txt" class="ng- isolate-scope" id="application-file-chooser" multiple="" name="attachments" sta-on-change-file="$ctrl.onfilesselected(files)" style="display: none; visibility: hidden;" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -6930,6 +10945,16 @@
           <t>German language level</t>
         </is>
       </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>&lt;input class="choice-input-wrapper__input form-checkbox text-current focus:ring-transparent" data-forms--inputs--choice-target="checkbox" id="candidate_answers_attributes_1_choices_1" name="candidate[answers_attributes][1][choices][]" type="checkbox" value="1"/&gt;</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>nowhich languages ​​do you speak at least at a b2 level?</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -6945,6 +10970,16 @@
           <t>German language level</t>
         </is>
       </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>&lt;input class="choice-input-wrapper__input form-checkbox text-current focus:ring-transparent" data-forms--inputs--choice-target="checkbox" id="candidate_answers_attributes_1_choices_2" name="candidate[answers_attributes][1][choices][]" type="checkbox" value="2"/&gt;</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>german</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -6960,6 +10995,16 @@
           <t>English language level</t>
         </is>
       </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>&lt;input class="choice-input-wrapper__input form-checkbox text-current focus:ring-transparent" data-forms--inputs--choice-target="checkbox" id="candidate_answers_attributes_1_choices_3" name="candidate[answers_attributes][1][choices][]" type="checkbox" value="3"/&gt;</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -6975,6 +11020,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="given-name" class="rounded-md px-4 w-full sm:px-6 border-2 border-white placeholder-gray-400 placeholder-opacity-60 text-gray-800 text-md shadow-form transform resize-none hover:shadow-form-strong hover:-translate-y-px focus:shadow-form-strong focus:-translate-y-px focus:ring-inset focus:border-white focus:border-2 focus:ring-2 focus:ring-gray-800 disabled:shadow-form disabled:translate-y-0 disabled:cursor-not-allowed disabled:text-gray-600 disabled:opacity-50 h-[70px]" data-careersite--form-target="firstname" data-careersite--messenger-token-target="firstname" data-forms--inputs--text-target="text" id="candidate_first_name" maxlength="50" name="candidate[first_name]" placeholder="jane" required="required" size="50" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>personal information*</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -6990,6 +11045,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="family-name" class="rounded-md px-4 w-full sm:px-6 border-2 border-white placeholder-gray-400 placeholder-opacity-60 text-gray-800 text-md shadow-form transform resize-none hover:shadow-form-strong hover:-translate-y-px focus:shadow-form-strong focus:-translate-y-px focus:ring-inset focus:border-white focus:border-2 focus:ring-2 focus:ring-gray-800 disabled:shadow-form disabled:translate-y-0 disabled:cursor-not-allowed disabled:text-gray-600 disabled:opacity-50 h-[70px]" data-careersite--form-target="lastname" data-careersite--messenger-token-target="lastname" data-forms--inputs--text-target="text" id="candidate_last_name" maxlength="50" name="candidate[last_name]" placeholder="doe" required="required" size="50" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -7005,6 +11070,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" class="rounded-md px-4 w-full sm:px-6 border-2 border-white placeholder-gray-400 placeholder-opacity-60 text-gray-800 text-md shadow-form transform resize-none hover:shadow-form-strong hover:-translate-y-px focus:shadow-form-strong focus:-translate-y-px focus:ring-inset focus:border-white focus:border-2 focus:ring-2 focus:ring-gray-800 disabled:shadow-form disabled:translate-y-0 disabled:cursor-not-allowed disabled:text-gray-600 disabled:opacity-50 h-[70px]" data-careersite--form-target="email" data-careersite--messenger-token-target="email" data-forms--inputs--text-target="text" data-suggest-email-correction="true" id="candidate_email" name="candidate[email]" placeholder="jane@example.com" required="required" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -7020,6 +11095,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>&lt;input aria-label="phone number with country code" autocomplete="tel" class="rounded-md px-4 w-full sm:px-6 h-[70px] border-2 ring-inset border-white placeholder-gray-400 placeholder-opacity-60 text-gray-800 text-md shadow-form rtl:text-left hover:shadow-form-strong focus:shadow-form-strong focus:ring-inset focus:border-white focus:border-2 focus:ring-2 focus:ring-gray-800" data-careersite--form-target="phone" data-controller="phone-input" data-intl-tel-input-id="0" data-invalid-country-code="invalid country code" data-invalid-number="invalid number" data-phone-input-country-value="de" data-phone-input-initialized-value="true" data-too-long="too long" data-too-short="too short" data-wrapper-class="w-full iti--large-flag-padding text-gray-800 transform focus:-translate-y-px hover:-translate-y-px z-phone-input-flag outline-none" id="candidate_phone" name="candidate[phone]" placeholder="+49 1512 3456789" type="tel"/&gt;</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -7035,6 +11120,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>&lt;input accept=".docx,.pptx,.pdf,.pages,.txt,.rtf" class="dz-hidden-input" id="candidate_resume_remote_url" required="" style="position: absolute; top: 0px; left: 0px; height: 100%; width: 100%; cursor: pointer; opacity: 0;" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>*upload</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -7050,6 +11145,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>&lt;input accept="" class="dz-hidden-input" id="candidate_file_remote_url" multiple="multiple" style="position: absolute; top: 0px; left: 0px; height: 100%; width: 100%; cursor: pointer; opacity: 0;" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>additional filesupload</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -7065,6 +11170,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>&lt;textarea class="rounded-md px-4 w-full sm:px-6 border-2 border-white placeholder-gray-400 placeholder-opacity-60 text-gray-800 text-md shadow-form transform resize-none hover:shadow-form-strong hover:-translate-y-px focus:shadow-form-strong focus:-translate-y-px focus:ring-inset focus:border-white focus:border-2 focus:ring-2 focus:ring-gray-800 disabled:shadow-form disabled:translate-y-0 disabled:cursor-not-allowed disabled:text-gray-600 disabled:opacity-50 py-6 resize-y" data-forms--inputs--text-target="text" id="candidate_job_applications_attributes_0_cover_letter" name="candidate[job_applications_attributes][0][cover_letter]" placeholder="write your letter…" rows="3"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>cover letter</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -7080,6 +11195,12 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>&lt;input class="border-0 mt-[2px] rounded-xs w-5 h-5 text-gray-800 cursor-pointer border-1 border-white checked:border-white checked:ring-white ring-2 ring-white focus:ring-gray-800 focus:border-white" id="candidate_consent_given" name="candidate[consent_given]" required="required" type="checkbox" value="1"/&gt;</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -7095,6 +11216,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>&lt;a class="privacy-policy" data-turbo="false" href="https://careers.bling.de/privacy-policy"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>privacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -7110,6 +11241,12 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>&lt;input class="block mx-auto py-4 px-20 bg-company-secondary-text text-company-secondary-bg rounded-company shadow-form-border-button cursor-pointer disabled:cursor-wait disabled:opacity-75 outline-none border-2 border-company-secondary-text transform resize-none hover:shadow-form-border-button-hover focus:shadow-form-border-button-hover hover:-translate-y-px focus:-translate-y-px focus:ring-2 focus:ring-gray-800 focus:ring-inset mt-12" data-disable-with="submit application" name="commit" type="submit" value="submit application"/&gt;</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -7125,6 +11262,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3932911276-336046945-phonenumber-nationalnumber-error" class="artdeco-text-input--input" id="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon- easyapplyformelement-3932911276-336046945-phonenumber-nationalnumber" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>contact infomajid sharghisoftware engineer | machine learning enthusiast | seeking new opportunitieserlangen, bavaria, germanyemail addressemail addressrequiredselect an optionsharghi.majid@gmail.commajid.sharghi97@gmail.comphone country codephone country coderequiredselect an optiongermany (+49)afghanistan (+93)aland islands (+358)albania (+355)algeria (+213)american samoa (+1)andorra (+376)angola (+244)anguilla (+1)antarctica (+0)antigua and barbuda (+1)argentina (+54)armenia (+374)aruba (+ 297)australia (+61)austria (+43)azerbaijan (+994)bahamas (+1)bahrain (+973)bangladesh (+880)barbados (+1)belarus (+375)belgium (+32)belize (+ 501)benin (+229)bermuda (+1)bhutan (+975)bolivia (+591)bosnia and herzegovina (+387)botswana (+267)bouvet island (+0)brazil (+55)british indian ocean territory (+246) brunei darussalam (+673)bulgaria (+359)burkina faso (+226)burundi (+257)cambodia (+855)cameroon (+237)canada (+1)cape verde (+238)caribbean nations (+0)cayman islands (+1)central african republic (+236)chad (+235)chile (+56)china (+86)christmas island (+61)cocos (keeling) islands (+61)colombia (+57)comoros (+ 269)congo (+242)cook islands (+682)costa rica (+506)cote d'ivoire (ivory coast) (+225)croatia (+385)cuba (+53)cyprus (+357)czech republic (+420)democratic republic of the congo (+243)denmark (+45)djibouti (+253)dominica ( +1)dominican republic (+1)ecuador (+593)egypt (+20)el salvador (+503)equatorial guinea (+240)eritrea (+291)estonia (+372)ethiopia (+251)falkland islands (malvinas ) (+500)faroe islands (+298)federated states of micronesia (+691)fiji (+679)finland (+358)france (+33)french guiana (+594)french polynesia (+689)french southern territories ( +0)gabon (+241)gambia (+220)georgia (+995)ghana (+233)gibraltar (+350)greece (+30)greenland (+299)grenada (+1)guadeloupe (+590)guam (+1)guatemala (+502)guernsey (+44)guinea (+224)guinea -bissau (+245)guyana (+592)haiti (+509)heard island and mcdonald islands (+0)honduras (+504)hong kong (+852)hungary (+36)iceland (+354)india (+91 )indonesia (+62)iran (+98)iraq (+964)ireland (+353)isle of man (+44)israel (+972)italy (+39)jamaica (+1)japan (+81)jersey ( +44)jordan (+962)kazakhstan (+7)kenya (+254)kiribati (+686)korea (+82)korea (north) (+850)kosovo (+383)kuwait (+965)kyrgyzstan (+996)laos (+856)latvia (+371)lebanon (+961)lesotho (+266)liberia (+231)libya (+218)liechtenstein (+423)lithuania (+370)luxembourg (+352)macao (+853)macedonia (+389)madagascar (+261)malawi (+265)malaysia (+60)maldives (+960)mali (+223)malta (+356)marshall islands (+692)martinique (+596)mauritania (+222)mauritius (+230)mayotte (+262)mexico (+52)moldova (+373)monaco (+377)mongolia (+976) montenegro (+382)montserrat (+1)morocco (+212)mozambique (+258)myanmar (+95)namibia (+264)nauru (+674)nepal (+977)netherlands (+31)netherlands antilles (+0)new caledonia (+687 )new zealand (+64)nicaragua (+505)niger (+227)nigeria (+234)niue (+683)norfolk island (+672)northern mariana islands (+1)norway (+47)pakistan (+92) palau (+680)palestinian territory (+970)panama (+507)papua new guinea (+675)paraguay (+595)peru (+51)philippines (+63)pitcairn (+0)poland (+48)portugal ( +351)puerto rico (+1)qatar (+974)reunion (+262)romania (+40)russian federation (+7)rwanda (+250)s. georgia and s. sandwich islands (+0)saint helena (+290)saint kitts and nevis (+1)saint lucia (+1)saint pierre and miquelon (+508)saint vincent and the grenadines (+1)samoa (+ 685)san marino (+378)sao tome and principe (+239)saudi arabia (+966)senegal (+221)serbia (+381)serbia and montenegro (+0)seychelles (+248)sierra leone (+232) Singapore (+65) Slovakia (+421) Slovenia (+386) Solomon Islands (+677) Somalia (+252) South Africa (+27) South Sudan (+211) Spain (+34) Sri Lanka (+94) Sudan (+249)Sultanate of oman (+968)suriname (+597)svalbard and jan mayen (+47)swaziland (+268)sweden (+46)switzerland (+41)syria (+963)taiwan (+886)tajikistan (+992)tanzania ( +255)thailand (+66)timor-leste (+670)togo (+228)tokelau (+690)tonga (+676)trinidad and tobago (+1)tunisia (+216)turkey (+90)turkmenistan (+ 993)turks and caicos islands (+1)tuvalu (+688)uganda (+256)ukraine (+380)united arab emirates (+971)united kingdom (+44)united states (+1)uruguay (+598)uzbekistan (+998)vanuatu (+678)vatican city state (holy see) (+39)venezuela (+58)vietnam (+84)virgin islands (british) (+1)virgin islands (us) (+1)wallis and futuna (+681)western sahara (+212)yemen (+967) zambia (+260)zimbabwe (+263)mobile phone number</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -7140,6 +11287,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3940597247-9-phonenumber-nationalnumber-error" class="artdeco-text-input--input" id="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement- 3940597247-9-phonenumber-nationalnumber" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>contact infomajid sharghisoftware engineer | machine learning enthusiast | seeking new opportunitieserlangen, bavaria, germanyemailemailrequiredselect an optionsharghi.majid@gmail.commajid.sharghi97@gmail.comphone country codephone country coderequiredselect an optiongermany (+49)afghanistan (+93)aland islands (+358)albania (+355)algeria (+ 213)american samoa (+1)andorra (+376)angola (+244)anguilla (+1)antarctica (+0)antigua and barbuda (+1)argentina (+54)armenia (+374)aruba (+297) australia (+61)austria (+43)azerbaijan (+994)bahamas (+1)bahrain (+973)bangladesh (+880)barbados (+1)belarus (+375)belgium (+32)belize (+501) benin (+229)bermuda (+1)bhutan (+975)bolivia (+591)bosnia and herzegovina (+387)botswana (+267)bouvet island (+0)brazil (+55)british indian ocean territory (+246)brunei darussalam (+673 )bulgaria (+359)burkina faso (+226)burundi (+257)cambodia (+855)cameroon (+237)canada (+1)cape verde (+238)caribbean nations (+0)cayman islands (+1) central african republic (+236)chad (+235)chile (+56)china (+86)christmas island (+61)cocos (keeling) islands (+61)colombia (+57)comoros (+269)congo (+ 242)cook islands (+682)costa rica (+506)cote d'ivoire (ivory coast) (+225)croatia (+385)cuba (+53)cyprus (+357)czech republic (+420)democratic republic of the congo (+243)denmark (+45)djibouti (+253)dominica (+1)dominican republic (+1)ecuador (+593)egypt (+20)el salvador (+503)equatorial guinea (+240)eritrea (+291)estonia (+372)ethiopia (+251)falkland islands (malvinas) (+500 )faroe islands (+298)federated states of micronesia (+691)fiji (+679)finland (+358)france (+33)french guiana (+594)french polynesia (+689)french southern territories (+0)gabon (+241)gambia (+220)georgia (+995)ghana (+233)gibraltar (+350)greece (+30)greenland (+299)grenada (+1)guadeloupe (+590)guam (+1)guatemala (+502)guernsey (+44)guinea (+224)guinea -bissau (+245)guyana (+592)haiti (+509)heard island and mcdonald islands (+0)honduras (+504)hong kong (+852)hungary (+36)iceland (+354)india (+91 )indonesia (+62)iran (+98)iraq (+964)ireland (+353)isle of man (+44)israel (+972)italy (+39)jamaica (+1)japan (+81)jersey ( +44)jordan (+962)kazakhstan (+7)kenya (+254)kiribati (+686)korea (+82)korea (north) (+850)kosovo (+383)kuwait (+965)kyrgyzstan (+996)laos (+856)latvia (+371)lebanon (+961)lesotho (+266)liberia (+231)libya (+218)liechtenstein (+423)lithuania (+370)luxembourg (+352)macao (+853)macedonia (+389)madagascar (+261)malawi (+265)malaysia (+60)maldives (+960)mali (+223)malta (+356)marshall islands (+692)martinique (+596)mauritania (+222)mauritius (+230)mayotte (+262)mexico (+52)moldova (+373)monaco (+377)mongolia (+976) montenegro (+382)montserrat (+1)morocco (+212)mozambique (+258)myanmar (+95)namibia (+264)nauru (+674)nepal (+977)netherlands (+31)netherlands antilles (+0)new caledonia (+687 )new zealand (+64)nicaragua (+505)niger (+227)nigeria (+234)niue (+683)norfolk island (+672)northern mariana islands (+1)norway (+47)pakistan (+92) palau (+680)palestinian territory (+970)panama (+507)papua new guinea (+675)paraguay (+595)peru (+51)philippines (+63)pitcairn (+0)poland (+48)portugal ( +351)puerto rico (+1)qatar (+974)reunion (+262)romania (+40)russian federation (+7)rwanda (+250)s. georgia and s. sandwich islands (+0)saint helena (+290)saint kitts and nevis (+1)saint lucia (+1)saint pierre and miquelon (+508)saint vincent and the grenadines (+1)samoa (+ 685)san marino (+378)sao tome and principe (+239)saudi arabia (+966)senegal (+221)serbia (+381)serbia and montenegro (+0)seychelles (+248)sierra leone (+232) Singapore (+65) Slovakia (+421) Slovenia (+386) Solomon Islands (+677) Somalia (+252) South Africa (+27) South Sudan (+211) Spain (+34) Sri Lanka (+94) Sudan (+249)Sultanate of oman (+968)suriname (+597)svalbard and jan mayen (+47)swaziland (+268)sweden (+46)switzerland (+41)syria (+963)taiwan (+886)tajikistan (+992)tanzania ( +255)thailand (+66)timor-leste (+670)togo (+228)tokelau (+690)tonga (+676)trinidad and tobago (+1)tunisia (+216)turkey (+90)turkmenistan (+ 993)turks and caicos islands (+1)tuvalu (+688)uganda (+256)ukraine (+380)united arab emirates (+971)united kingdom (+44)united states (+1)uruguay (+598)uzbekistan (+998)vanuatu (+678)vatican city state (holy see) (+39)venezuela (+58)vietnam (+84)virgin islands (british) (+1)virgin islands (us) (+1)wallis and futuna (+681)western sahara (+212)yemen (+967) zambia (+260)zimbabwe (+263)phone</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -7155,6 +11312,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/msword,application/vnd.openxmlformats-officedocument.wordprocessingml.document,application/pdf" class="hidden" id="jobs-document-upload-file-input-upload-resume-urn:li:fsu_jobapplicationfileuploadformelement:urn:li:jobs_applyformcommon_easyapplyformelement:(3940597247,33,document)" name="file" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>be sure to include an updated resumemajid-sharghi-foroushani-flowcv-resume-20240424 (3).pdflast used on 4/26/2024deselect resume majid-sharghi-foroushani-flowcv-resume-20240424 (3).pdfcv_10.pdflast used on 2/10/2024select resume cv_10.pdfupload resume</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -7170,6 +11337,16 @@
           <t>linkedin</t>
         </is>
       </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_1628905" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -7185,6 +11362,16 @@
           <t>github</t>
         </is>
       </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>&lt;input class="form-control" name="custom_attribute_634679" placeholder="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -7192,7 +11379,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>src="javascript:;" class="cw-form-clear" lt-prop-title="clear fields in this section" lt-prop-tooltip-config="{&amp;quot;position&amp;quot; : &amp;quot;top&amp;quot;}" click="rec-form- component =&gt; clear(event,formsection)"&gt;clear&lt;/a&gt;</t>
+          <t>&lt;src="javascript:;" class="cw-form-clear" lt-prop-title="clear fields in this section" lt-prop-tooltip-config="{&amp;quot;position&amp;quot; : &amp;quot;top&amp;quot;}" click="rec-form- component =&gt; clear(event,formsection)"&gt;clear&lt;/a&gt;</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -7200,6 +11387,12 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>&lt;src="javascript:;" class="cw-form-clear" click="rec-form- component =&amp;gt; clear(event,formsection)" lt-prop-title="clear fields in this section" lt-prop-tooltip-config='{"position" : "top"}'&gt;clear&lt;/src="javascript:;"&gt;</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -7215,6 +11408,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,application/rtf,application/x-zip,application/msword,application/vnd .ms-word,application/vnd.oasis.opendocument.text,text/css,text/rtf,text/html,text/sgml,text/plain,text/richtext,text/enriched,text/tab-separated-values ,application/vnd.openxmlformats-officedocument.wordprocessingml.document,application/vnd.openxmlformats-officedocument.s preadsheetml.sheet,application/vnd.ms-excel,application/zip,audio/*,video/*,image/x-icon,image/svg+xml,image/png,image/ief,image/rgb,image/ jpeg,image/tiff,image/x-rgb,image/g3fax,image/x-xpixmap,image/gif,image/x-xbitmap,pdf,rtf,zipx,zip,doc,dot,docx,dotx,odt, css,html,htm,sgml,txt,xls,xlt,xla,xlsx,xltx,ppt,pot,pptx,pot,potx,mdb,jpeg,jpg,tiff,fax,png,gif,ico,svg" change="lyte-fileupload =&amp;gt; change(event,this)" class="fileuploadinput" id="" name="rec-form_1379000000011515_file" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>attachment information*</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -7230,6 +11433,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,.pdf" aria-invalid="false" hidden="" name="cv-file" style="display:none" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>CV and attachmentsPlease select an option and upload your CV:*</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -7245,6 +11458,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>&lt;input accept="application/pdf,.pdf,image/*,.jpg,.jpeg,.gif,.png,.bmp,.tif,.tiff,application/vnd.ms-powerpoint,.ppt,.pps,application/vnd.openxmlformats-officedocument.presentationml.presentation,.pptx,.ppsx,application/vnd.oasis.opendocument.text,.odt,application/rtf,.rtf,application/vnd.oasis.opendocument.presentation,.odp,text/plain,.txt" aria-invalid="false" hidden="" multiple="" name="attachments" style="display:none" tabindex="-1" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>dokumentxingsoftgarden</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -7260,6 +11483,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>&lt;textarea aria-invalid="false" class="textarea__area-sc-f0c3ad6b-0 dimwiu" name="applicationdata.coverlettertext" placeholder="cover letter (optional)" style="height: 53.6px !important;" type="text"&gt;&lt;/textarea&gt;</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>further attachments (e.g. references or certificates)</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -7267,7 +11500,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>input data-testid="textinput" id="applylateremail" required="" type="email" placeholder="e-mail address" autocomplete="email" name="email" class="sc-bsgiji jskkmm" value=""&gt;</t>
+          <t>&lt;input data-testid="textinput" id="applylateremail" required="" type="email" placeholder="e-mail address" autocomplete="email" name="email" class="sc-bsgiji jskkmm" value=""&gt;</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -7275,6 +11508,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="email" class="sc-bsgiji jskkmm" data-testid="textinput" id="applylateremail" name="email" placeholder="e-mail address" required="" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -7290,6 +11529,16 @@
           <t>next</t>
         </is>
       </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>&lt;button class="sc-jotjna hvotpm" data-testid="applylatersubmitbutton" type="submit"&gt;apply later&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>apply later</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -7297,7 +11546,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>input type="text" name="key_word" id="searchfor" placeholder="job title" class="mar-0 height-50 input-brd-radius-25 searchfor m-width-100 ui-autocomplete-input" maxlength="80" autocomplete="off"&gt;</t>
+          <t>&lt;input type="text" name="key_word" id="searchfor" placeholder="job title" class="mar-0 height-50 input-brd-radius-25 searchfor m-width-100 ui-autocomplete-input" maxlength="80" autocomplete="off"&gt;</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -7305,6 +11554,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="mar-0 height-50 input-brd-radius-25 searchfor m-width-100 ui-autocomplete-input" id="searchfor" maxlength="80" name="key_word" placeholder="job title" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -7320,6 +11575,12 @@
           <t>search</t>
         </is>
       </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="mar-0 height-50 input-brd-radius-25 searchwhere m-width-100 ui-autocomplete-input" id="searchwhere" maxlength="80" name="location" placeholder="where" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -7327,7 +11588,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>input tabindex="1" value="" placeholder="email" class="bg_inputs" type="email" name="user[email]" id="user_email"&gt;</t>
+          <t>&lt;input tabindex="1" value="" placeholder="email" class="bg_inputs" type="email" name="user[email]" id="user_email"&gt;</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -7335,6 +11596,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>&lt;input class="bg_inputs" id="user_email" name="user[email]" placeholder="email" tabindex="1" type="email" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -7350,6 +11617,12 @@
           <t>password</t>
         </is>
       </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>&lt;input class="bg_inputs" id="user_password" name="user[password]" placeholder="password" tabindex="2" type="password"/&gt;</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -7365,6 +11638,12 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>&lt;input class="button bg-orange fnt-sans-semi-bold clr-white fnt-size-16 pad-10 expand hvr-opacity" data-disable-with="log in" name="commit" type="submit" value="log in"/&gt;</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -7380,6 +11659,12 @@
           <t>username</t>
         </is>
       </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>&lt;input class="mar-b-0 left" id="user_remember_me" name="user[remember_me]" type="checkbox" value="1"/&gt;</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -7395,6 +11680,16 @@
           <t>password</t>
         </is>
       </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>&lt;a class="clr-orange fnt-size-13 hvr-underline" href="/password/new"&gt;forgot your password?&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>keep me logged inforgot your password?</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -7410,6 +11705,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>&lt;input autocomplete="off" class="at-commutetime-frominput job-ad-display-n8c99w" data-genesis-element="form_input" id="stepstone-form-element-34" name="from" placeholder="enter start address" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>on:</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -7425,6 +11730,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>&lt;input aria-readonly="true" autocomplete="off" class="at-commutetime-toinput job-ad-display-1ft51x9" data-genesis-element="form_input" id="stepstone-form-element-40" name="to" readonly="" type="text" value="leipziger straße 51, 10117 berlin, germany"/&gt;</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>to:</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -7442,6 +11757,18 @@
           <t>login</t>
         </is>
       </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>&lt;button class="careersite-button careersite-button--secondary mx-auto min-w-[200px]" data-event-category="account" data-event-label="click" data-event-name="auto joined: create" data-event-tracking="click" type="submit"&gt;
+log in
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>og in</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -7457,6 +11784,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>&lt;input aria-describedby="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3941404445-593289355-phonenumber-nationalnumber-error" class="artdeco-text-input--input" id="single-line-text-form-component-formelement-urn-li-jobs-applyformcommon-easyapplyformelement-3941404445-593289355-phonenumber-nationalnumber" required="" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>contact infoe-mail addresse-mail addressrequiredselect optionsharghi.majid@gmail.commajid.sharghi97@gmail.comcountry codecountry coderequiredselect optiongermany (+49)afghanistan (+93)aland islands (+358)albania (+355)algeria (+213)american samoa (+1)andorra (+376)angola (+244)anguilla (+1)antarctica (+0)antigua and barbuda (+1)argentina (+54)armenia (+374)aruba (+297)azerbaijan (+994)australia (+61)bahamas (+1)bahrain (+973)bangladesh (+880)barbados (+1)belgium (+32)belize (+501)benin (+229)bermuda (+1)bhutan (+975)bolivia (+591)Bosnia and Herzegovina (+387)Botswana (+267)Bouvet Island (+0)Brazil (+55)British Indian Territory. ocean (+246)brunei darussalam (+673)bulgaria (+359)burkina faso (+226)burundi (+257)chile (+56)china (+86)cook islands (+682)costa rica (+506)democratic republic of congo (+243)dominica (+1)dominican republic (+1)djibouti (+253)denmark (+45)ecuador (+593)el salvador (+503)ivory coast (+225)eritrea (+291)estonia (+372)falkland islands (malvinas) (+500)fiji (+679)finland (+358)france (+33)french guyana (+594)french polynesia (+689)french southern territories (+0)faroe islands (+298)federated states of micronesia (+691)Gabon (+241)Gambia (+220)Georgia (+995)Ghana (+233)Gibraltar (+350)Grenada (+1)Greece (+30)Great Britain (+44)Greenland (+299)Guadeloupe (+590)Guam (+1)Guatemala (+502)Guernsey (+44)Guinea (+224)Guinea-Bissau (+245)Guyana (+592)Haiti (+509)Heard and McDonald Islands (+0)Honduras (+504)Hong Kong (+852)India (+91)Indonesia (+62)Iraq (+964)Iran (+98)Ireland (+353)Iceland (+354)Isle of Man (+44)Israel (+972)Italy (+39)Jamaica (+1)Japan (+81)Yemen (+967)Jersey (+44)jordan (+962)virgin islands (american) (+1)virgin islands (british) (+1)cayman islands (+1)cambodia (+855)cameroon (+237)canada (+1)cape verde (+238)caribbean nations (+0)kazakhstan (+7)qatar (+974)kenya (+254)kyrgyzstan (+996)kiribati (+686)cocos islands (keeling) (+61)colombia (+57)comoros (+269)congo (+242)korea (+82)korea (north) (+850)kosovo (+383)croatia (+385)cuba (+53)kuwait (+965)laos (+856)lesotho (+266)latvia (+371)lebanon (+961)liberia (+231)libya (+218)liechtenstein (+423)Lithuania (+370)Luxembourg (+352)Macao (+853)Madagascar (+261)Malawi (+265)Malaysia (+60)Maldives (+960)Mali (+223)Malta (+356)Morocco (+212)Marshall Islands (+692)Martinique (+596)Mauritania (+222)Mauritius (+230)Mayotte (+262)Macedonia (+389)Mexico (+52)Moldova (+373)Monaco (+377)Mongolia (+976)Montenegro (+382)Montserrat (+1)Mozambique (+258)Myanmar (+95)Namibia (+264)Nauru (+674)Nepal (+977)New Caledonia (+687)New Zealand (+64)Nicaragua (+505)Netherlands (+31)Netherlands Antilles (+0)Niger (+227)Nigeria (+234)Niue (+683)Norfolk Island (+672)Norway (+47)Northern Mariana Islands (+1)Oman (+968)Pakistan (+92)Palau (+680)Palestinian Territories (+970)Panama (+507)Papua New Guinea (+675)Paraguay (+595)Peru (+51)Philippines (+63)Pitcairn (+0)Poland (+48)Portugal (+351)Puerto Rico (+1)Rwanda (+250)Romania (+40)Russian Federation (+7)Reunion (+262)S. Georgia and the S. Sandwich Islands (+0)Saint Kitts and Nevis (+1)Saint Pierre and Miquelon (+508)Solomon Islands (+677)Zambia (+260)Samoa (+685)San Marino (+378)Saudi Arabia (+966)Sweden (+46)Switzerland (+41)Senegal (+221)Serbia (+381)Serbia and Montenegro (+0)Seychelles (+248)Sierra Leone (+232)Zimbabwe (+263)Singapore (+65)Slovak Republic (+421)Slovenia (+386)Somalia (+252)Spain (+34)Sri Lanka (+94)Saint Helena (+290)Saint Lucia (+1)St. vincent and the grenadines (+1)sudan (+249)suriname (+597)svalbard and jan mayen (+47)swaziland (+268)syria (+963)são tomé and príncipe (+239)south africa (+27)south sudan (+211)tajikistan (+992)taiwan (+886)tanzania (+255)thailand (+66)timor-leste (+670)togo (+228)tokelau (+690)tonga (+676)trinidad and tobago (+1)chad (+235)czech republic (+420)tunisia (+216)turkmenistan (+993)turks and caicos islands (+1)tuvalu (+688)turkey (+90)uganda (+256)ukraine (+380)hungary (+36)uruguay (+598)uzbekistan (+998)vanuatu (+678)vatican city (+39)venezuela (+58)united arab emirates (+971)united states (+1)vietnam (+84)wallis and futuna (+681)christmas island (+61)belarus (+375)western sahara (+212)central african republic (+236)cyprus (+357)egypt (+20)equatorial guinea (+240)ethiopia (+251)austria (+43)mobile number</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -7472,6 +11809,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="cv_lebenslauf_caption" class="upload-field" id="fld_665e16d7144c4151601803" name="cv_lebenslauf" size="20" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>business analyst (m/f/d)*</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -7487,6 +11834,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>&lt;a href="javascript: void(0);" title="upload resume"&gt;upload resume&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>upload resume</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -7502,6 +11859,16 @@
           <t>first name</t>
         </is>
       </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="firstname_caption" aria-required="true" autocomplete="off" class="app_input" id="firstname" maxlength="50" name="application_form[firstname]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>master data*---*</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -7517,6 +11884,16 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="lastname_caption" aria-required="true" autocomplete="off" class="app_input" id="lastname" maxlength="50" name="application_form[lastname]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -7532,6 +11909,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="strasse_caption" aria-required="true" autocomplete="off" class="app_input" id="strasse" maxlength="50" name="bewerbung_form[strasse]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -7547,6 +11934,16 @@
           <t>zip</t>
         </is>
       </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="plz_caption" aria-required="true" autocomplete="off" class="app_input" id="plz" maxlength="20" name="application_form[plz]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -7562,6 +11959,16 @@
           <t>birth</t>
         </is>
       </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="date of birth_caption" aria-required="false" autocomplete="off" class="input datepicker hasdatepicker" id="date of birth" maxlength="50" name="application_form[date of birth]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>nationality---date of birth (dd.mm.yyyy)</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -7577,6 +11984,16 @@
           <t>phone number</t>
         </is>
       </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="telefon_caption" aria-required="true" autocomplete="off" class="app_input" id="telefon" maxlength="20" name="bewerbung_form[telefon]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -7592,6 +12009,16 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="mail_caption" aria-required="true" autocomplete="off" class="app_input" id="mail" maxlength="50" name="bewerbung_form[mail]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -7607,6 +12034,16 @@
           <t>recommender</t>
         </is>
       </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="vordef_bew_feld_26_caption" aria-required="false" autocomplete="off" class="app_input" id="vordef_bew_feld_26" maxlength="50" name="bewerbung_form[vordef_bew_feld_26]" type="text" value=""/&gt;</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>framework data*---name of the recommending employee (in the case of an employee recommendation)</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -7622,6 +12059,16 @@
           <t>cover letter</t>
         </is>
       </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="anschreiben_caption" class="upload-field" id="fld_665e16d7136e5241517519" name="anschreiben" size="20" tabindex="0" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>attachments*</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -7637,6 +12084,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="resume_caption" class="upload-field" id="fld_665e16d713bac810428444" name="resume" size="20" tabindex="0" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>upload file resume</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -7652,6 +12109,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="anlage1_caption" class="upload-field" id="fld_665e16d713d28542758449" name="anlage1" size="20" tabindex="0" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>upload filelast employer certificate or complete certificates</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -7667,6 +12134,16 @@
           <t>cv</t>
         </is>
       </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="anlage2_caption" class="upload-field" id="fld_665e16d713e53517723283" name="anlage2" size="20" tabindex="0" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>upload fileadditional attachment</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -7682,6 +12159,16 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="anlage3_caption" class="upload-field" id="fld_665e16d713f98971433760" name="anlage3" size="20" tabindex="0" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>upload fileschool certificates of the last 2 years</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -7697,6 +12184,16 @@
           <t>transcript</t>
         </is>
       </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>&lt;input aria-labelledby="anlage5_caption" class="upload-field" id="fld_665e16d7140c0580870000" name="anlage5" size="20" tabindex="0" type="file"/&gt;</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>upload fileuniversity certificate</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -7712,6 +12209,16 @@
           <t>privacy</t>
         </is>
       </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://vertriebskarriere.hansemerkur.de/datenschutz" target="_blank"&gt;privacy policy&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>upload fileprivacy policy</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -7727,6 +12234,16 @@
           <t>cancel</t>
         </is>
       </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://bewerber-innendienst.hansemerkur.de/business-analyst-mwd-de-j4010.html" onclick="" target="_self" title="job offer business analyst (m/f/d)"&gt;back&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -7742,6 +12259,16 @@
           <t>submit</t>
         </is>
       </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>&lt;a href="#" onclick="javascript: $(this).parents('form:first').submit(); return false;" title="send"&gt;send&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>send</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -7749,7 +12276,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>input type="email" name="email" placeholder="your email address" title="your email address" tabindex="0" id="contact-email-field" ng-model="$ctrl.application.senderemail" ng-pattern="/^(([^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+(\.[^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+)*)|(&amp;quot;.+&amp;quot;))@((\[[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}])|(([a-za-z\-0-9]+\.)+[a-za-z]{2,}))$/" required="" class="ng-pristine ng-untouched ng-empty ng-valid-email ng-invalid ng-invalid-required ng-valid-pattern"&gt;</t>
+          <t>&lt;input type="email" name="email" placeholder="your email address" title="your email address" tabindex="0" id="contact-email-field" ng-model="$ctrl.application.senderemail" ng-pattern="/^(([^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+(\.[^&lt;&gt;()[\]\\.,;:\s@&amp;quot;]+)*)|(&amp;quot;.+&amp;quot;))@((\[[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}])|(([a-za-z\-0-9]+\.)+[a-za-z]{2,}))$/" required="" class="ng-pristine ng-untouched ng-empty ng-valid-email ng-invalid ng-invalid-required ng-valid-pattern"&gt;</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -7757,6 +12284,12 @@
           <t>email</t>
         </is>
       </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>&lt;input class="ng-pristine ng-untouched ng-empty ng-valid-email ng-invalid ng-invalid-required ng-valid-pattern" id="contact-email-field" name="email" ng-model="$ctrl.application.senderemail" ng-pattern='/^(([^&amp;lt;&amp;gt;()[\]\\.,;:\s@"]+(\.[^&amp;lt;&amp;gt;()[\]\\.,;:\s@"]+)*)|(".+"))@((\[[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}\.[0-9]{1,3}])|(([a-za-z\-0-9]+\.)+[a-za-z]{2,}))$/' placeholder="your email address" required="" tabindex="0" title="your email address" type="email"/&gt;</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -7772,6 +12305,12 @@
           <t>last name</t>
         </is>
       </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>&lt;input class="ng-pristine ng-untouched ng-empty ng-invalid ng-invalid-required" id="contact-name-field" name="name" ng-blur="$ctrl.onblursendername()" ng-focus="$ctrl.oldsendername = $ctrl.application.sendername" ng-model="$ctrl.application.sendername" placeholder="your name" required="" tabindex="0" title="your name" type="text"/&gt;</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
